--- a/dist/sample/site_infos/site_info.xlsx
+++ b/dist/sample/site_infos/site_info.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/TemplateCreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TemplateCreator\dist\sample\site_infos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C956468B-90F0-DB4E-A56B-BA6679218FB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D872CF66-0C5F-4C87-8383-1ADA4BF62ED4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1560" windowWidth="28300" windowHeight="17440" xr2:uid="{35D476AF-93BE-704D-8436-1B710A5025AA}"/>
+    <workbookView xWindow="2640" yWindow="1560" windowWidth="28305" windowHeight="17445" xr2:uid="{35D476AF-93BE-704D-8436-1B710A5025AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AQ$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AJ$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
   <si>
     <t>no</t>
     <phoneticPr fontId="1"/>
@@ -145,31 +144,6 @@
   </si>
   <si>
     <t>mod30</t>
-  </si>
-  <si>
-    <t>url1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>url2</t>
-  </si>
-  <si>
-    <t>url3</t>
-  </si>
-  <si>
-    <t>url4</t>
-  </si>
-  <si>
-    <t>url5</t>
-  </si>
-  <si>
-    <t>url6</t>
-  </si>
-  <si>
-    <t>url7</t>
-  </si>
-  <si>
-    <t>url8</t>
   </si>
   <si>
     <t>/biz/special/index.html</t>
@@ -327,79 +301,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/biz</t>
-  </si>
-  <si>
-    <t>/special</t>
-  </si>
-  <si>
     <t>/campaign</t>
-  </si>
-  <si>
-    <t>/cashback</t>
-  </si>
-  <si>
-    <t>/cb_mobile</t>
-  </si>
-  <si>
-    <t>/ele_fee</t>
-  </si>
-  <si>
-    <t>/ele_set</t>
-  </si>
-  <si>
-    <t>/gakuwari</t>
-  </si>
-  <si>
-    <t>/hdr</t>
-  </si>
-  <si>
-    <t>/jcom_tablet</t>
-  </si>
-  <si>
-    <t>/jcom_tablet_sim</t>
-  </si>
-  <si>
-    <t>/kojihi</t>
-  </si>
-  <si>
-    <t>/mobile</t>
-  </si>
-  <si>
-    <t>/iphone</t>
-  </si>
-  <si>
-    <t>/p20lite</t>
-  </si>
-  <si>
-    <t>/mobile_event</t>
-  </si>
-  <si>
-    <t>/mobile_kazoku</t>
-  </si>
-  <si>
-    <t>/mystyle</t>
-  </si>
-  <si>
-    <t>/shokai</t>
-  </si>
-  <si>
-    <t>/star_w</t>
-  </si>
-  <si>
-    <t>/start_jcom</t>
-  </si>
-  <si>
-    <t>/start_mobile</t>
-  </si>
-  <si>
-    <t>/u26</t>
-  </si>
-  <si>
-    <t>/ur</t>
-  </si>
-  <si>
-    <t>/taishou</t>
   </si>
   <si>
     <t>/cm</t>
@@ -411,41 +313,112 @@
     <t>/contactus</t>
   </si>
   <si>
-    <t>/guide</t>
-  </si>
-  <si>
-    <t>/member</t>
-  </si>
-  <si>
-    <t>/starter</t>
-  </si>
-  <si>
     <t>/price</t>
   </si>
   <si>
-    <t>/au</t>
+    <t>url</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/fee</t>
+    <t>/biz/special</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/jcom_card</t>
+    <t>/campaign/cashback</t>
   </si>
   <si>
-    <t>/magazine_pack</t>
+    <t>/campaign/cb_mobile</t>
   </si>
   <si>
-    <t>/matome</t>
+    <t>/campaign/ele_fee</t>
   </si>
   <si>
-    <t>/netpack</t>
+    <t>/campaign/ele_set</t>
+  </si>
+  <si>
+    <t>/campaign/gakuwari</t>
+  </si>
+  <si>
+    <t>/campaign/hdr</t>
+  </si>
+  <si>
+    <t>/campaign/jcom_tablet</t>
+  </si>
+  <si>
+    <t>/campaign/jcom_tablet_sim</t>
+  </si>
+  <si>
+    <t>/campaign/kojihi</t>
+  </si>
+  <si>
+    <t>/campaign/mobile</t>
+  </si>
+  <si>
+    <t>/campaign/mobile/iphone/iphone</t>
+  </si>
+  <si>
+    <t>/campaign/mobile/p20lite/p20lite</t>
+  </si>
+  <si>
+    <t>/campaign/mobile_event</t>
+  </si>
+  <si>
+    <t>/campaign/mobile_kazoku</t>
+  </si>
+  <si>
+    <t>/campaign/mystyle</t>
+  </si>
+  <si>
+    <t>/campaign/shokai</t>
+  </si>
+  <si>
+    <t>/campaign/star_w</t>
+  </si>
+  <si>
+    <t>/campaign/start_jcom</t>
+  </si>
+  <si>
+    <t>/campaign/start_mobile</t>
+  </si>
+  <si>
+    <t>/campaign/u26</t>
+  </si>
+  <si>
+    <t>/campaign/ur</t>
+  </si>
+  <si>
+    <t>/campaign/ur/taishou/taishou</t>
+  </si>
+  <si>
+    <t>/guide/member</t>
+  </si>
+  <si>
+    <t>/guide/starter</t>
+  </si>
+  <si>
+    <t>/price/au</t>
+  </si>
+  <si>
+    <t>/price/fee</t>
+  </si>
+  <si>
+    <t>/price/jcom_card</t>
+  </si>
+  <si>
+    <t>/price/magazine_pack</t>
+  </si>
+  <si>
+    <t>/price/matome</t>
+  </si>
+  <si>
+    <t>/price/netpack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -843,171 +816,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C5DD49-BDAA-E54A-BC8E-71428627953D}">
-  <dimension ref="A1:AQ301"/>
+  <dimension ref="A1:AJ301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C1" sqref="C1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="3" customFormat="1">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1034,23 +982,16 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-    </row>
-    <row r="3" spans="1:43">
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1058,9 +999,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1087,23 +1026,16 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-    </row>
-    <row r="4" spans="1:43">
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1111,9 +1043,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1140,23 +1070,16 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-    </row>
-    <row r="5" spans="1:43">
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1164,9 +1087,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1193,23 +1114,16 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-    </row>
-    <row r="6" spans="1:43">
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1217,9 +1131,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1246,23 +1158,16 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-    </row>
-    <row r="7" spans="1:43">
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1270,9 +1175,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1299,23 +1202,16 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-    </row>
-    <row r="8" spans="1:43">
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1323,9 +1219,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1352,23 +1246,16 @@
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-    </row>
-    <row r="9" spans="1:43">
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1376,9 +1263,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1405,15 +1290,8 @@
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-    </row>
-    <row r="10" spans="1:43">
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1421,7 +1299,7 @@
         <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1429,9 +1307,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1458,23 +1334,16 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-    </row>
-    <row r="11" spans="1:43">
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1482,9 +1351,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1511,23 +1378,16 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-    </row>
-    <row r="12" spans="1:43">
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1535,9 +1395,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1564,31 +1422,24 @@
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-    </row>
-    <row r="13" spans="1:43">
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1615,23 +1466,16 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-    </row>
-    <row r="14" spans="1:43">
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1639,9 +1483,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1668,23 +1510,16 @@
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-    </row>
-    <row r="15" spans="1:43">
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1692,9 +1527,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1721,23 +1554,16 @@
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-    </row>
-    <row r="16" spans="1:43">
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1745,9 +1571,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1774,23 +1598,16 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-    </row>
-    <row r="17" spans="1:43">
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1798,9 +1615,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1827,37 +1642,24 @@
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-    </row>
-    <row r="18" spans="1:43">
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1884,37 +1686,24 @@
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-    </row>
-    <row r="19" spans="1:43">
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1941,23 +1730,16 @@
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-    </row>
-    <row r="20" spans="1:43">
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1965,9 +1747,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1994,23 +1774,16 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
-    </row>
-    <row r="21" spans="1:43">
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2018,9 +1791,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2047,23 +1818,16 @@
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
-    </row>
-    <row r="22" spans="1:43">
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2071,9 +1835,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2100,23 +1862,16 @@
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-    </row>
-    <row r="23" spans="1:43">
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2124,9 +1879,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2153,23 +1906,16 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-    </row>
-    <row r="24" spans="1:43">
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2177,9 +1923,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2206,23 +1950,16 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
-    </row>
-    <row r="25" spans="1:43">
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2230,9 +1967,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2259,23 +1994,16 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-    </row>
-    <row r="26" spans="1:43">
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2283,9 +2011,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2312,23 +2038,16 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
-    </row>
-    <row r="27" spans="1:43">
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2336,9 +2055,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2365,23 +2082,16 @@
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
-    </row>
-    <row r="28" spans="1:43">
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2389,9 +2099,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2418,23 +2126,16 @@
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="1"/>
-    </row>
-    <row r="29" spans="1:43">
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2442,9 +2143,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2471,23 +2170,16 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
-      <c r="AP29" s="1"/>
-      <c r="AQ29" s="1"/>
-    </row>
-    <row r="30" spans="1:43">
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2495,9 +2187,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2524,23 +2214,16 @@
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
-    </row>
-    <row r="31" spans="1:43">
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2548,9 +2231,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2577,23 +2258,16 @@
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-    </row>
-    <row r="32" spans="1:43">
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2601,9 +2275,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2630,23 +2302,16 @@
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
-      <c r="AQ32" s="1"/>
-    </row>
-    <row r="33" spans="1:43">
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2654,9 +2319,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2683,23 +2346,16 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-    </row>
-    <row r="34" spans="1:43">
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2707,9 +2363,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2736,37 +2390,24 @@
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-    </row>
-    <row r="35" spans="1:43">
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2793,31 +2434,24 @@
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
-      <c r="AO35" s="1"/>
-      <c r="AP35" s="1"/>
-      <c r="AQ35" s="1"/>
-    </row>
-    <row r="36" spans="1:43">
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2844,31 +2478,24 @@
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
-    </row>
-    <row r="37" spans="1:43">
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2895,31 +2522,24 @@
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
-      <c r="AO37" s="1"/>
-      <c r="AP37" s="1"/>
-      <c r="AQ37" s="1"/>
-    </row>
-    <row r="38" spans="1:43">
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2946,31 +2566,24 @@
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
-      <c r="AQ38" s="1"/>
-    </row>
-    <row r="39" spans="1:43">
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2997,31 +2610,24 @@
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
-    </row>
-    <row r="40" spans="1:43">
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -3048,23 +2654,16 @@
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1"/>
-      <c r="AO40" s="1"/>
-      <c r="AP40" s="1"/>
-      <c r="AQ40" s="1"/>
-    </row>
-    <row r="41" spans="1:43">
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3072,9 +2671,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -3101,23 +2698,16 @@
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="1"/>
-      <c r="AO41" s="1"/>
-      <c r="AP41" s="1"/>
-      <c r="AQ41" s="1"/>
-    </row>
-    <row r="42" spans="1:43">
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3125,9 +2715,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -3154,23 +2742,16 @@
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="1"/>
-      <c r="AM42" s="1"/>
-      <c r="AN42" s="1"/>
-      <c r="AO42" s="1"/>
-      <c r="AP42" s="1"/>
-      <c r="AQ42" s="1"/>
-    </row>
-    <row r="43" spans="1:43">
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3178,9 +2759,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -3207,23 +2786,16 @@
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="1"/>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1"/>
-      <c r="AQ43" s="1"/>
-    </row>
-    <row r="44" spans="1:43">
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3231,9 +2803,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -3260,23 +2830,16 @@
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
-      <c r="AK44" s="1"/>
-      <c r="AL44" s="1"/>
-      <c r="AM44" s="1"/>
-      <c r="AN44" s="1"/>
-      <c r="AO44" s="1"/>
-      <c r="AP44" s="1"/>
-      <c r="AQ44" s="1"/>
-    </row>
-    <row r="45" spans="1:43">
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3284,9 +2847,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -3313,31 +2874,24 @@
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
-      <c r="AK45" s="1"/>
-      <c r="AL45" s="1"/>
-      <c r="AM45" s="1"/>
-      <c r="AN45" s="1"/>
-      <c r="AO45" s="1"/>
-      <c r="AP45" s="1"/>
-      <c r="AQ45" s="1"/>
-    </row>
-    <row r="46" spans="1:43">
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -3364,23 +2918,16 @@
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
-      <c r="AK46" s="1"/>
-      <c r="AL46" s="1"/>
-      <c r="AM46" s="1"/>
-      <c r="AN46" s="1"/>
-      <c r="AO46" s="1"/>
-      <c r="AP46" s="1"/>
-      <c r="AQ46" s="1"/>
-    </row>
-    <row r="47" spans="1:43">
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3388,9 +2935,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -3417,23 +2962,16 @@
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
-      <c r="AK47" s="1"/>
-      <c r="AL47" s="1"/>
-      <c r="AM47" s="1"/>
-      <c r="AN47" s="1"/>
-      <c r="AO47" s="1"/>
-      <c r="AP47" s="1"/>
-      <c r="AQ47" s="1"/>
-    </row>
-    <row r="48" spans="1:43">
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3441,9 +2979,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -3470,23 +3006,16 @@
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
-      <c r="AK48" s="1"/>
-      <c r="AL48" s="1"/>
-      <c r="AM48" s="1"/>
-      <c r="AN48" s="1"/>
-      <c r="AO48" s="1"/>
-      <c r="AP48" s="1"/>
-      <c r="AQ48" s="1"/>
-    </row>
-    <row r="49" spans="1:43">
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3494,9 +3023,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -3523,31 +3050,24 @@
       <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
       <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
-      <c r="AM49" s="1"/>
-      <c r="AN49" s="1"/>
-      <c r="AO49" s="1"/>
-      <c r="AP49" s="1"/>
-      <c r="AQ49" s="1"/>
-    </row>
-    <row r="50" spans="1:43">
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -3574,23 +3094,16 @@
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="1"/>
-      <c r="AM50" s="1"/>
-      <c r="AN50" s="1"/>
-      <c r="AO50" s="1"/>
-      <c r="AP50" s="1"/>
-      <c r="AQ50" s="1"/>
-    </row>
-    <row r="51" spans="1:43">
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3598,9 +3111,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3627,15 +3138,8 @@
       <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
-      <c r="AK51" s="1"/>
-      <c r="AL51" s="1"/>
-      <c r="AM51" s="1"/>
-      <c r="AN51" s="1"/>
-      <c r="AO51" s="1"/>
-      <c r="AP51" s="1"/>
-      <c r="AQ51" s="1"/>
-    </row>
-    <row r="52" spans="1:43">
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -3674,15 +3178,8 @@
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="1"/>
-      <c r="AM52" s="1"/>
-      <c r="AN52" s="1"/>
-      <c r="AO52" s="1"/>
-      <c r="AP52" s="1"/>
-      <c r="AQ52" s="1"/>
-    </row>
-    <row r="53" spans="1:43">
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -3721,15 +3218,8 @@
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
-      <c r="AK53" s="1"/>
-      <c r="AL53" s="1"/>
-      <c r="AM53" s="1"/>
-      <c r="AN53" s="1"/>
-      <c r="AO53" s="1"/>
-      <c r="AP53" s="1"/>
-      <c r="AQ53" s="1"/>
-    </row>
-    <row r="54" spans="1:43">
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -3768,15 +3258,8 @@
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="1"/>
-      <c r="AM54" s="1"/>
-      <c r="AN54" s="1"/>
-      <c r="AO54" s="1"/>
-      <c r="AP54" s="1"/>
-      <c r="AQ54" s="1"/>
-    </row>
-    <row r="55" spans="1:43">
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -3815,15 +3298,8 @@
       <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
       <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="1"/>
-      <c r="AM55" s="1"/>
-      <c r="AN55" s="1"/>
-      <c r="AO55" s="1"/>
-      <c r="AP55" s="1"/>
-      <c r="AQ55" s="1"/>
-    </row>
-    <row r="56" spans="1:43">
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -3862,15 +3338,8 @@
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
       <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
-      <c r="AM56" s="1"/>
-      <c r="AN56" s="1"/>
-      <c r="AO56" s="1"/>
-      <c r="AP56" s="1"/>
-      <c r="AQ56" s="1"/>
-    </row>
-    <row r="57" spans="1:43">
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -3909,15 +3378,8 @@
       <c r="AH57" s="1"/>
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
-      <c r="AK57" s="1"/>
-      <c r="AL57" s="1"/>
-      <c r="AM57" s="1"/>
-      <c r="AN57" s="1"/>
-      <c r="AO57" s="1"/>
-      <c r="AP57" s="1"/>
-      <c r="AQ57" s="1"/>
-    </row>
-    <row r="58" spans="1:43">
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -3956,15 +3418,8 @@
       <c r="AH58" s="1"/>
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
-      <c r="AK58" s="1"/>
-      <c r="AL58" s="1"/>
-      <c r="AM58" s="1"/>
-      <c r="AN58" s="1"/>
-      <c r="AO58" s="1"/>
-      <c r="AP58" s="1"/>
-      <c r="AQ58" s="1"/>
-    </row>
-    <row r="59" spans="1:43">
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -4003,15 +3458,8 @@
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
-      <c r="AK59" s="1"/>
-      <c r="AL59" s="1"/>
-      <c r="AM59" s="1"/>
-      <c r="AN59" s="1"/>
-      <c r="AO59" s="1"/>
-      <c r="AP59" s="1"/>
-      <c r="AQ59" s="1"/>
-    </row>
-    <row r="60" spans="1:43">
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -4050,15 +3498,8 @@
       <c r="AH60" s="1"/>
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
-      <c r="AK60" s="1"/>
-      <c r="AL60" s="1"/>
-      <c r="AM60" s="1"/>
-      <c r="AN60" s="1"/>
-      <c r="AO60" s="1"/>
-      <c r="AP60" s="1"/>
-      <c r="AQ60" s="1"/>
-    </row>
-    <row r="61" spans="1:43">
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -4097,15 +3538,8 @@
       <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
-      <c r="AK61" s="1"/>
-      <c r="AL61" s="1"/>
-      <c r="AM61" s="1"/>
-      <c r="AN61" s="1"/>
-      <c r="AO61" s="1"/>
-      <c r="AP61" s="1"/>
-      <c r="AQ61" s="1"/>
-    </row>
-    <row r="62" spans="1:43">
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -4144,15 +3578,8 @@
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
-      <c r="AK62" s="1"/>
-      <c r="AL62" s="1"/>
-      <c r="AM62" s="1"/>
-      <c r="AN62" s="1"/>
-      <c r="AO62" s="1"/>
-      <c r="AP62" s="1"/>
-      <c r="AQ62" s="1"/>
-    </row>
-    <row r="63" spans="1:43">
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -4191,15 +3618,8 @@
       <c r="AH63" s="1"/>
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
-      <c r="AK63" s="1"/>
-      <c r="AL63" s="1"/>
-      <c r="AM63" s="1"/>
-      <c r="AN63" s="1"/>
-      <c r="AO63" s="1"/>
-      <c r="AP63" s="1"/>
-      <c r="AQ63" s="1"/>
-    </row>
-    <row r="64" spans="1:43">
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -4238,15 +3658,8 @@
       <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
-      <c r="AK64" s="1"/>
-      <c r="AL64" s="1"/>
-      <c r="AM64" s="1"/>
-      <c r="AN64" s="1"/>
-      <c r="AO64" s="1"/>
-      <c r="AP64" s="1"/>
-      <c r="AQ64" s="1"/>
-    </row>
-    <row r="65" spans="1:43">
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -4285,15 +3698,8 @@
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
-      <c r="AK65" s="1"/>
-      <c r="AL65" s="1"/>
-      <c r="AM65" s="1"/>
-      <c r="AN65" s="1"/>
-      <c r="AO65" s="1"/>
-      <c r="AP65" s="1"/>
-      <c r="AQ65" s="1"/>
-    </row>
-    <row r="66" spans="1:43">
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -4332,15 +3738,8 @@
       <c r="AH66" s="1"/>
       <c r="AI66" s="1"/>
       <c r="AJ66" s="1"/>
-      <c r="AK66" s="1"/>
-      <c r="AL66" s="1"/>
-      <c r="AM66" s="1"/>
-      <c r="AN66" s="1"/>
-      <c r="AO66" s="1"/>
-      <c r="AP66" s="1"/>
-      <c r="AQ66" s="1"/>
-    </row>
-    <row r="67" spans="1:43">
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -4379,15 +3778,8 @@
       <c r="AH67" s="1"/>
       <c r="AI67" s="1"/>
       <c r="AJ67" s="1"/>
-      <c r="AK67" s="1"/>
-      <c r="AL67" s="1"/>
-      <c r="AM67" s="1"/>
-      <c r="AN67" s="1"/>
-      <c r="AO67" s="1"/>
-      <c r="AP67" s="1"/>
-      <c r="AQ67" s="1"/>
-    </row>
-    <row r="68" spans="1:43">
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -4426,15 +3818,8 @@
       <c r="AH68" s="1"/>
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
-      <c r="AK68" s="1"/>
-      <c r="AL68" s="1"/>
-      <c r="AM68" s="1"/>
-      <c r="AN68" s="1"/>
-      <c r="AO68" s="1"/>
-      <c r="AP68" s="1"/>
-      <c r="AQ68" s="1"/>
-    </row>
-    <row r="69" spans="1:43">
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -4473,15 +3858,8 @@
       <c r="AH69" s="1"/>
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
-      <c r="AK69" s="1"/>
-      <c r="AL69" s="1"/>
-      <c r="AM69" s="1"/>
-      <c r="AN69" s="1"/>
-      <c r="AO69" s="1"/>
-      <c r="AP69" s="1"/>
-      <c r="AQ69" s="1"/>
-    </row>
-    <row r="70" spans="1:43">
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -4520,15 +3898,8 @@
       <c r="AH70" s="1"/>
       <c r="AI70" s="1"/>
       <c r="AJ70" s="1"/>
-      <c r="AK70" s="1"/>
-      <c r="AL70" s="1"/>
-      <c r="AM70" s="1"/>
-      <c r="AN70" s="1"/>
-      <c r="AO70" s="1"/>
-      <c r="AP70" s="1"/>
-      <c r="AQ70" s="1"/>
-    </row>
-    <row r="71" spans="1:43">
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -4567,15 +3938,8 @@
       <c r="AH71" s="1"/>
       <c r="AI71" s="1"/>
       <c r="AJ71" s="1"/>
-      <c r="AK71" s="1"/>
-      <c r="AL71" s="1"/>
-      <c r="AM71" s="1"/>
-      <c r="AN71" s="1"/>
-      <c r="AO71" s="1"/>
-      <c r="AP71" s="1"/>
-      <c r="AQ71" s="1"/>
-    </row>
-    <row r="72" spans="1:43">
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -4614,15 +3978,8 @@
       <c r="AH72" s="1"/>
       <c r="AI72" s="1"/>
       <c r="AJ72" s="1"/>
-      <c r="AK72" s="1"/>
-      <c r="AL72" s="1"/>
-      <c r="AM72" s="1"/>
-      <c r="AN72" s="1"/>
-      <c r="AO72" s="1"/>
-      <c r="AP72" s="1"/>
-      <c r="AQ72" s="1"/>
-    </row>
-    <row r="73" spans="1:43">
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -4661,15 +4018,8 @@
       <c r="AH73" s="1"/>
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
-      <c r="AK73" s="1"/>
-      <c r="AL73" s="1"/>
-      <c r="AM73" s="1"/>
-      <c r="AN73" s="1"/>
-      <c r="AO73" s="1"/>
-      <c r="AP73" s="1"/>
-      <c r="AQ73" s="1"/>
-    </row>
-    <row r="74" spans="1:43">
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -4708,15 +4058,8 @@
       <c r="AH74" s="1"/>
       <c r="AI74" s="1"/>
       <c r="AJ74" s="1"/>
-      <c r="AK74" s="1"/>
-      <c r="AL74" s="1"/>
-      <c r="AM74" s="1"/>
-      <c r="AN74" s="1"/>
-      <c r="AO74" s="1"/>
-      <c r="AP74" s="1"/>
-      <c r="AQ74" s="1"/>
-    </row>
-    <row r="75" spans="1:43">
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -4755,15 +4098,8 @@
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
       <c r="AJ75" s="1"/>
-      <c r="AK75" s="1"/>
-      <c r="AL75" s="1"/>
-      <c r="AM75" s="1"/>
-      <c r="AN75" s="1"/>
-      <c r="AO75" s="1"/>
-      <c r="AP75" s="1"/>
-      <c r="AQ75" s="1"/>
-    </row>
-    <row r="76" spans="1:43">
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -4802,15 +4138,8 @@
       <c r="AH76" s="1"/>
       <c r="AI76" s="1"/>
       <c r="AJ76" s="1"/>
-      <c r="AK76" s="1"/>
-      <c r="AL76" s="1"/>
-      <c r="AM76" s="1"/>
-      <c r="AN76" s="1"/>
-      <c r="AO76" s="1"/>
-      <c r="AP76" s="1"/>
-      <c r="AQ76" s="1"/>
-    </row>
-    <row r="77" spans="1:43">
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -4849,15 +4178,8 @@
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
-      <c r="AK77" s="1"/>
-      <c r="AL77" s="1"/>
-      <c r="AM77" s="1"/>
-      <c r="AN77" s="1"/>
-      <c r="AO77" s="1"/>
-      <c r="AP77" s="1"/>
-      <c r="AQ77" s="1"/>
-    </row>
-    <row r="78" spans="1:43">
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -4896,15 +4218,8 @@
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
       <c r="AJ78" s="1"/>
-      <c r="AK78" s="1"/>
-      <c r="AL78" s="1"/>
-      <c r="AM78" s="1"/>
-      <c r="AN78" s="1"/>
-      <c r="AO78" s="1"/>
-      <c r="AP78" s="1"/>
-      <c r="AQ78" s="1"/>
-    </row>
-    <row r="79" spans="1:43">
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -4943,15 +4258,8 @@
       <c r="AH79" s="1"/>
       <c r="AI79" s="1"/>
       <c r="AJ79" s="1"/>
-      <c r="AK79" s="1"/>
-      <c r="AL79" s="1"/>
-      <c r="AM79" s="1"/>
-      <c r="AN79" s="1"/>
-      <c r="AO79" s="1"/>
-      <c r="AP79" s="1"/>
-      <c r="AQ79" s="1"/>
-    </row>
-    <row r="80" spans="1:43">
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -4990,15 +4298,8 @@
       <c r="AH80" s="1"/>
       <c r="AI80" s="1"/>
       <c r="AJ80" s="1"/>
-      <c r="AK80" s="1"/>
-      <c r="AL80" s="1"/>
-      <c r="AM80" s="1"/>
-      <c r="AN80" s="1"/>
-      <c r="AO80" s="1"/>
-      <c r="AP80" s="1"/>
-      <c r="AQ80" s="1"/>
-    </row>
-    <row r="81" spans="1:43">
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -5037,15 +4338,8 @@
       <c r="AH81" s="1"/>
       <c r="AI81" s="1"/>
       <c r="AJ81" s="1"/>
-      <c r="AK81" s="1"/>
-      <c r="AL81" s="1"/>
-      <c r="AM81" s="1"/>
-      <c r="AN81" s="1"/>
-      <c r="AO81" s="1"/>
-      <c r="AP81" s="1"/>
-      <c r="AQ81" s="1"/>
-    </row>
-    <row r="82" spans="1:43">
+    </row>
+    <row r="82" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -5084,15 +4378,8 @@
       <c r="AH82" s="1"/>
       <c r="AI82" s="1"/>
       <c r="AJ82" s="1"/>
-      <c r="AK82" s="1"/>
-      <c r="AL82" s="1"/>
-      <c r="AM82" s="1"/>
-      <c r="AN82" s="1"/>
-      <c r="AO82" s="1"/>
-      <c r="AP82" s="1"/>
-      <c r="AQ82" s="1"/>
-    </row>
-    <row r="83" spans="1:43">
+    </row>
+    <row r="83" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -5131,15 +4418,8 @@
       <c r="AH83" s="1"/>
       <c r="AI83" s="1"/>
       <c r="AJ83" s="1"/>
-      <c r="AK83" s="1"/>
-      <c r="AL83" s="1"/>
-      <c r="AM83" s="1"/>
-      <c r="AN83" s="1"/>
-      <c r="AO83" s="1"/>
-      <c r="AP83" s="1"/>
-      <c r="AQ83" s="1"/>
-    </row>
-    <row r="84" spans="1:43">
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -5178,15 +4458,8 @@
       <c r="AH84" s="1"/>
       <c r="AI84" s="1"/>
       <c r="AJ84" s="1"/>
-      <c r="AK84" s="1"/>
-      <c r="AL84" s="1"/>
-      <c r="AM84" s="1"/>
-      <c r="AN84" s="1"/>
-      <c r="AO84" s="1"/>
-      <c r="AP84" s="1"/>
-      <c r="AQ84" s="1"/>
-    </row>
-    <row r="85" spans="1:43">
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -5225,15 +4498,8 @@
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
       <c r="AJ85" s="1"/>
-      <c r="AK85" s="1"/>
-      <c r="AL85" s="1"/>
-      <c r="AM85" s="1"/>
-      <c r="AN85" s="1"/>
-      <c r="AO85" s="1"/>
-      <c r="AP85" s="1"/>
-      <c r="AQ85" s="1"/>
-    </row>
-    <row r="86" spans="1:43">
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -5272,15 +4538,8 @@
       <c r="AH86" s="1"/>
       <c r="AI86" s="1"/>
       <c r="AJ86" s="1"/>
-      <c r="AK86" s="1"/>
-      <c r="AL86" s="1"/>
-      <c r="AM86" s="1"/>
-      <c r="AN86" s="1"/>
-      <c r="AO86" s="1"/>
-      <c r="AP86" s="1"/>
-      <c r="AQ86" s="1"/>
-    </row>
-    <row r="87" spans="1:43">
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -5319,15 +4578,8 @@
       <c r="AH87" s="1"/>
       <c r="AI87" s="1"/>
       <c r="AJ87" s="1"/>
-      <c r="AK87" s="1"/>
-      <c r="AL87" s="1"/>
-      <c r="AM87" s="1"/>
-      <c r="AN87" s="1"/>
-      <c r="AO87" s="1"/>
-      <c r="AP87" s="1"/>
-      <c r="AQ87" s="1"/>
-    </row>
-    <row r="88" spans="1:43">
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -5366,15 +4618,8 @@
       <c r="AH88" s="1"/>
       <c r="AI88" s="1"/>
       <c r="AJ88" s="1"/>
-      <c r="AK88" s="1"/>
-      <c r="AL88" s="1"/>
-      <c r="AM88" s="1"/>
-      <c r="AN88" s="1"/>
-      <c r="AO88" s="1"/>
-      <c r="AP88" s="1"/>
-      <c r="AQ88" s="1"/>
-    </row>
-    <row r="89" spans="1:43">
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -5413,15 +4658,8 @@
       <c r="AH89" s="1"/>
       <c r="AI89" s="1"/>
       <c r="AJ89" s="1"/>
-      <c r="AK89" s="1"/>
-      <c r="AL89" s="1"/>
-      <c r="AM89" s="1"/>
-      <c r="AN89" s="1"/>
-      <c r="AO89" s="1"/>
-      <c r="AP89" s="1"/>
-      <c r="AQ89" s="1"/>
-    </row>
-    <row r="90" spans="1:43">
+    </row>
+    <row r="90" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -5460,15 +4698,8 @@
       <c r="AH90" s="1"/>
       <c r="AI90" s="1"/>
       <c r="AJ90" s="1"/>
-      <c r="AK90" s="1"/>
-      <c r="AL90" s="1"/>
-      <c r="AM90" s="1"/>
-      <c r="AN90" s="1"/>
-      <c r="AO90" s="1"/>
-      <c r="AP90" s="1"/>
-      <c r="AQ90" s="1"/>
-    </row>
-    <row r="91" spans="1:43">
+    </row>
+    <row r="91" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -5507,15 +4738,8 @@
       <c r="AH91" s="1"/>
       <c r="AI91" s="1"/>
       <c r="AJ91" s="1"/>
-      <c r="AK91" s="1"/>
-      <c r="AL91" s="1"/>
-      <c r="AM91" s="1"/>
-      <c r="AN91" s="1"/>
-      <c r="AO91" s="1"/>
-      <c r="AP91" s="1"/>
-      <c r="AQ91" s="1"/>
-    </row>
-    <row r="92" spans="1:43">
+    </row>
+    <row r="92" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -5554,15 +4778,8 @@
       <c r="AH92" s="1"/>
       <c r="AI92" s="1"/>
       <c r="AJ92" s="1"/>
-      <c r="AK92" s="1"/>
-      <c r="AL92" s="1"/>
-      <c r="AM92" s="1"/>
-      <c r="AN92" s="1"/>
-      <c r="AO92" s="1"/>
-      <c r="AP92" s="1"/>
-      <c r="AQ92" s="1"/>
-    </row>
-    <row r="93" spans="1:43">
+    </row>
+    <row r="93" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -5601,15 +4818,8 @@
       <c r="AH93" s="1"/>
       <c r="AI93" s="1"/>
       <c r="AJ93" s="1"/>
-      <c r="AK93" s="1"/>
-      <c r="AL93" s="1"/>
-      <c r="AM93" s="1"/>
-      <c r="AN93" s="1"/>
-      <c r="AO93" s="1"/>
-      <c r="AP93" s="1"/>
-      <c r="AQ93" s="1"/>
-    </row>
-    <row r="94" spans="1:43">
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -5648,15 +4858,8 @@
       <c r="AH94" s="1"/>
       <c r="AI94" s="1"/>
       <c r="AJ94" s="1"/>
-      <c r="AK94" s="1"/>
-      <c r="AL94" s="1"/>
-      <c r="AM94" s="1"/>
-      <c r="AN94" s="1"/>
-      <c r="AO94" s="1"/>
-      <c r="AP94" s="1"/>
-      <c r="AQ94" s="1"/>
-    </row>
-    <row r="95" spans="1:43">
+    </row>
+    <row r="95" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -5695,15 +4898,8 @@
       <c r="AH95" s="1"/>
       <c r="AI95" s="1"/>
       <c r="AJ95" s="1"/>
-      <c r="AK95" s="1"/>
-      <c r="AL95" s="1"/>
-      <c r="AM95" s="1"/>
-      <c r="AN95" s="1"/>
-      <c r="AO95" s="1"/>
-      <c r="AP95" s="1"/>
-      <c r="AQ95" s="1"/>
-    </row>
-    <row r="96" spans="1:43">
+    </row>
+    <row r="96" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -5742,15 +4938,8 @@
       <c r="AH96" s="1"/>
       <c r="AI96" s="1"/>
       <c r="AJ96" s="1"/>
-      <c r="AK96" s="1"/>
-      <c r="AL96" s="1"/>
-      <c r="AM96" s="1"/>
-      <c r="AN96" s="1"/>
-      <c r="AO96" s="1"/>
-      <c r="AP96" s="1"/>
-      <c r="AQ96" s="1"/>
-    </row>
-    <row r="97" spans="1:43">
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -5789,15 +4978,8 @@
       <c r="AH97" s="1"/>
       <c r="AI97" s="1"/>
       <c r="AJ97" s="1"/>
-      <c r="AK97" s="1"/>
-      <c r="AL97" s="1"/>
-      <c r="AM97" s="1"/>
-      <c r="AN97" s="1"/>
-      <c r="AO97" s="1"/>
-      <c r="AP97" s="1"/>
-      <c r="AQ97" s="1"/>
-    </row>
-    <row r="98" spans="1:43">
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -5836,15 +5018,8 @@
       <c r="AH98" s="1"/>
       <c r="AI98" s="1"/>
       <c r="AJ98" s="1"/>
-      <c r="AK98" s="1"/>
-      <c r="AL98" s="1"/>
-      <c r="AM98" s="1"/>
-      <c r="AN98" s="1"/>
-      <c r="AO98" s="1"/>
-      <c r="AP98" s="1"/>
-      <c r="AQ98" s="1"/>
-    </row>
-    <row r="99" spans="1:43">
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -5883,15 +5058,8 @@
       <c r="AH99" s="1"/>
       <c r="AI99" s="1"/>
       <c r="AJ99" s="1"/>
-      <c r="AK99" s="1"/>
-      <c r="AL99" s="1"/>
-      <c r="AM99" s="1"/>
-      <c r="AN99" s="1"/>
-      <c r="AO99" s="1"/>
-      <c r="AP99" s="1"/>
-      <c r="AQ99" s="1"/>
-    </row>
-    <row r="100" spans="1:43">
+    </row>
+    <row r="100" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -5930,15 +5098,8 @@
       <c r="AH100" s="1"/>
       <c r="AI100" s="1"/>
       <c r="AJ100" s="1"/>
-      <c r="AK100" s="1"/>
-      <c r="AL100" s="1"/>
-      <c r="AM100" s="1"/>
-      <c r="AN100" s="1"/>
-      <c r="AO100" s="1"/>
-      <c r="AP100" s="1"/>
-      <c r="AQ100" s="1"/>
-    </row>
-    <row r="101" spans="1:43">
+    </row>
+    <row r="101" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -5977,15 +5138,8 @@
       <c r="AH101" s="1"/>
       <c r="AI101" s="1"/>
       <c r="AJ101" s="1"/>
-      <c r="AK101" s="1"/>
-      <c r="AL101" s="1"/>
-      <c r="AM101" s="1"/>
-      <c r="AN101" s="1"/>
-      <c r="AO101" s="1"/>
-      <c r="AP101" s="1"/>
-      <c r="AQ101" s="1"/>
-    </row>
-    <row r="102" spans="1:43">
+    </row>
+    <row r="102" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -6024,15 +5178,8 @@
       <c r="AH102" s="1"/>
       <c r="AI102" s="1"/>
       <c r="AJ102" s="1"/>
-      <c r="AK102" s="1"/>
-      <c r="AL102" s="1"/>
-      <c r="AM102" s="1"/>
-      <c r="AN102" s="1"/>
-      <c r="AO102" s="1"/>
-      <c r="AP102" s="1"/>
-      <c r="AQ102" s="1"/>
-    </row>
-    <row r="103" spans="1:43">
+    </row>
+    <row r="103" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -6071,15 +5218,8 @@
       <c r="AH103" s="1"/>
       <c r="AI103" s="1"/>
       <c r="AJ103" s="1"/>
-      <c r="AK103" s="1"/>
-      <c r="AL103" s="1"/>
-      <c r="AM103" s="1"/>
-      <c r="AN103" s="1"/>
-      <c r="AO103" s="1"/>
-      <c r="AP103" s="1"/>
-      <c r="AQ103" s="1"/>
-    </row>
-    <row r="104" spans="1:43">
+    </row>
+    <row r="104" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -6118,15 +5258,8 @@
       <c r="AH104" s="1"/>
       <c r="AI104" s="1"/>
       <c r="AJ104" s="1"/>
-      <c r="AK104" s="1"/>
-      <c r="AL104" s="1"/>
-      <c r="AM104" s="1"/>
-      <c r="AN104" s="1"/>
-      <c r="AO104" s="1"/>
-      <c r="AP104" s="1"/>
-      <c r="AQ104" s="1"/>
-    </row>
-    <row r="105" spans="1:43">
+    </row>
+    <row r="105" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -6165,15 +5298,8 @@
       <c r="AH105" s="1"/>
       <c r="AI105" s="1"/>
       <c r="AJ105" s="1"/>
-      <c r="AK105" s="1"/>
-      <c r="AL105" s="1"/>
-      <c r="AM105" s="1"/>
-      <c r="AN105" s="1"/>
-      <c r="AO105" s="1"/>
-      <c r="AP105" s="1"/>
-      <c r="AQ105" s="1"/>
-    </row>
-    <row r="106" spans="1:43">
+    </row>
+    <row r="106" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -6212,15 +5338,8 @@
       <c r="AH106" s="1"/>
       <c r="AI106" s="1"/>
       <c r="AJ106" s="1"/>
-      <c r="AK106" s="1"/>
-      <c r="AL106" s="1"/>
-      <c r="AM106" s="1"/>
-      <c r="AN106" s="1"/>
-      <c r="AO106" s="1"/>
-      <c r="AP106" s="1"/>
-      <c r="AQ106" s="1"/>
-    </row>
-    <row r="107" spans="1:43">
+    </row>
+    <row r="107" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -6259,15 +5378,8 @@
       <c r="AH107" s="1"/>
       <c r="AI107" s="1"/>
       <c r="AJ107" s="1"/>
-      <c r="AK107" s="1"/>
-      <c r="AL107" s="1"/>
-      <c r="AM107" s="1"/>
-      <c r="AN107" s="1"/>
-      <c r="AO107" s="1"/>
-      <c r="AP107" s="1"/>
-      <c r="AQ107" s="1"/>
-    </row>
-    <row r="108" spans="1:43">
+    </row>
+    <row r="108" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -6306,15 +5418,8 @@
       <c r="AH108" s="1"/>
       <c r="AI108" s="1"/>
       <c r="AJ108" s="1"/>
-      <c r="AK108" s="1"/>
-      <c r="AL108" s="1"/>
-      <c r="AM108" s="1"/>
-      <c r="AN108" s="1"/>
-      <c r="AO108" s="1"/>
-      <c r="AP108" s="1"/>
-      <c r="AQ108" s="1"/>
-    </row>
-    <row r="109" spans="1:43">
+    </row>
+    <row r="109" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -6353,15 +5458,8 @@
       <c r="AH109" s="1"/>
       <c r="AI109" s="1"/>
       <c r="AJ109" s="1"/>
-      <c r="AK109" s="1"/>
-      <c r="AL109" s="1"/>
-      <c r="AM109" s="1"/>
-      <c r="AN109" s="1"/>
-      <c r="AO109" s="1"/>
-      <c r="AP109" s="1"/>
-      <c r="AQ109" s="1"/>
-    </row>
-    <row r="110" spans="1:43">
+    </row>
+    <row r="110" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -6400,15 +5498,8 @@
       <c r="AH110" s="1"/>
       <c r="AI110" s="1"/>
       <c r="AJ110" s="1"/>
-      <c r="AK110" s="1"/>
-      <c r="AL110" s="1"/>
-      <c r="AM110" s="1"/>
-      <c r="AN110" s="1"/>
-      <c r="AO110" s="1"/>
-      <c r="AP110" s="1"/>
-      <c r="AQ110" s="1"/>
-    </row>
-    <row r="111" spans="1:43">
+    </row>
+    <row r="111" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -6447,15 +5538,8 @@
       <c r="AH111" s="1"/>
       <c r="AI111" s="1"/>
       <c r="AJ111" s="1"/>
-      <c r="AK111" s="1"/>
-      <c r="AL111" s="1"/>
-      <c r="AM111" s="1"/>
-      <c r="AN111" s="1"/>
-      <c r="AO111" s="1"/>
-      <c r="AP111" s="1"/>
-      <c r="AQ111" s="1"/>
-    </row>
-    <row r="112" spans="1:43">
+    </row>
+    <row r="112" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -6494,15 +5578,8 @@
       <c r="AH112" s="1"/>
       <c r="AI112" s="1"/>
       <c r="AJ112" s="1"/>
-      <c r="AK112" s="1"/>
-      <c r="AL112" s="1"/>
-      <c r="AM112" s="1"/>
-      <c r="AN112" s="1"/>
-      <c r="AO112" s="1"/>
-      <c r="AP112" s="1"/>
-      <c r="AQ112" s="1"/>
-    </row>
-    <row r="113" spans="1:43">
+    </row>
+    <row r="113" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -6541,15 +5618,8 @@
       <c r="AH113" s="1"/>
       <c r="AI113" s="1"/>
       <c r="AJ113" s="1"/>
-      <c r="AK113" s="1"/>
-      <c r="AL113" s="1"/>
-      <c r="AM113" s="1"/>
-      <c r="AN113" s="1"/>
-      <c r="AO113" s="1"/>
-      <c r="AP113" s="1"/>
-      <c r="AQ113" s="1"/>
-    </row>
-    <row r="114" spans="1:43">
+    </row>
+    <row r="114" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -6588,15 +5658,8 @@
       <c r="AH114" s="1"/>
       <c r="AI114" s="1"/>
       <c r="AJ114" s="1"/>
-      <c r="AK114" s="1"/>
-      <c r="AL114" s="1"/>
-      <c r="AM114" s="1"/>
-      <c r="AN114" s="1"/>
-      <c r="AO114" s="1"/>
-      <c r="AP114" s="1"/>
-      <c r="AQ114" s="1"/>
-    </row>
-    <row r="115" spans="1:43">
+    </row>
+    <row r="115" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -6635,15 +5698,8 @@
       <c r="AH115" s="1"/>
       <c r="AI115" s="1"/>
       <c r="AJ115" s="1"/>
-      <c r="AK115" s="1"/>
-      <c r="AL115" s="1"/>
-      <c r="AM115" s="1"/>
-      <c r="AN115" s="1"/>
-      <c r="AO115" s="1"/>
-      <c r="AP115" s="1"/>
-      <c r="AQ115" s="1"/>
-    </row>
-    <row r="116" spans="1:43">
+    </row>
+    <row r="116" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -6682,15 +5738,8 @@
       <c r="AH116" s="1"/>
       <c r="AI116" s="1"/>
       <c r="AJ116" s="1"/>
-      <c r="AK116" s="1"/>
-      <c r="AL116" s="1"/>
-      <c r="AM116" s="1"/>
-      <c r="AN116" s="1"/>
-      <c r="AO116" s="1"/>
-      <c r="AP116" s="1"/>
-      <c r="AQ116" s="1"/>
-    </row>
-    <row r="117" spans="1:43">
+    </row>
+    <row r="117" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -6729,15 +5778,8 @@
       <c r="AH117" s="1"/>
       <c r="AI117" s="1"/>
       <c r="AJ117" s="1"/>
-      <c r="AK117" s="1"/>
-      <c r="AL117" s="1"/>
-      <c r="AM117" s="1"/>
-      <c r="AN117" s="1"/>
-      <c r="AO117" s="1"/>
-      <c r="AP117" s="1"/>
-      <c r="AQ117" s="1"/>
-    </row>
-    <row r="118" spans="1:43">
+    </row>
+    <row r="118" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -6776,15 +5818,8 @@
       <c r="AH118" s="1"/>
       <c r="AI118" s="1"/>
       <c r="AJ118" s="1"/>
-      <c r="AK118" s="1"/>
-      <c r="AL118" s="1"/>
-      <c r="AM118" s="1"/>
-      <c r="AN118" s="1"/>
-      <c r="AO118" s="1"/>
-      <c r="AP118" s="1"/>
-      <c r="AQ118" s="1"/>
-    </row>
-    <row r="119" spans="1:43">
+    </row>
+    <row r="119" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -6823,15 +5858,8 @@
       <c r="AH119" s="1"/>
       <c r="AI119" s="1"/>
       <c r="AJ119" s="1"/>
-      <c r="AK119" s="1"/>
-      <c r="AL119" s="1"/>
-      <c r="AM119" s="1"/>
-      <c r="AN119" s="1"/>
-      <c r="AO119" s="1"/>
-      <c r="AP119" s="1"/>
-      <c r="AQ119" s="1"/>
-    </row>
-    <row r="120" spans="1:43">
+    </row>
+    <row r="120" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -6870,15 +5898,8 @@
       <c r="AH120" s="1"/>
       <c r="AI120" s="1"/>
       <c r="AJ120" s="1"/>
-      <c r="AK120" s="1"/>
-      <c r="AL120" s="1"/>
-      <c r="AM120" s="1"/>
-      <c r="AN120" s="1"/>
-      <c r="AO120" s="1"/>
-      <c r="AP120" s="1"/>
-      <c r="AQ120" s="1"/>
-    </row>
-    <row r="121" spans="1:43">
+    </row>
+    <row r="121" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -6917,15 +5938,8 @@
       <c r="AH121" s="1"/>
       <c r="AI121" s="1"/>
       <c r="AJ121" s="1"/>
-      <c r="AK121" s="1"/>
-      <c r="AL121" s="1"/>
-      <c r="AM121" s="1"/>
-      <c r="AN121" s="1"/>
-      <c r="AO121" s="1"/>
-      <c r="AP121" s="1"/>
-      <c r="AQ121" s="1"/>
-    </row>
-    <row r="122" spans="1:43">
+    </row>
+    <row r="122" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -6964,15 +5978,8 @@
       <c r="AH122" s="1"/>
       <c r="AI122" s="1"/>
       <c r="AJ122" s="1"/>
-      <c r="AK122" s="1"/>
-      <c r="AL122" s="1"/>
-      <c r="AM122" s="1"/>
-      <c r="AN122" s="1"/>
-      <c r="AO122" s="1"/>
-      <c r="AP122" s="1"/>
-      <c r="AQ122" s="1"/>
-    </row>
-    <row r="123" spans="1:43">
+    </row>
+    <row r="123" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -7011,15 +6018,8 @@
       <c r="AH123" s="1"/>
       <c r="AI123" s="1"/>
       <c r="AJ123" s="1"/>
-      <c r="AK123" s="1"/>
-      <c r="AL123" s="1"/>
-      <c r="AM123" s="1"/>
-      <c r="AN123" s="1"/>
-      <c r="AO123" s="1"/>
-      <c r="AP123" s="1"/>
-      <c r="AQ123" s="1"/>
-    </row>
-    <row r="124" spans="1:43">
+    </row>
+    <row r="124" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -7058,15 +6058,8 @@
       <c r="AH124" s="1"/>
       <c r="AI124" s="1"/>
       <c r="AJ124" s="1"/>
-      <c r="AK124" s="1"/>
-      <c r="AL124" s="1"/>
-      <c r="AM124" s="1"/>
-      <c r="AN124" s="1"/>
-      <c r="AO124" s="1"/>
-      <c r="AP124" s="1"/>
-      <c r="AQ124" s="1"/>
-    </row>
-    <row r="125" spans="1:43">
+    </row>
+    <row r="125" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -7105,15 +6098,8 @@
       <c r="AH125" s="1"/>
       <c r="AI125" s="1"/>
       <c r="AJ125" s="1"/>
-      <c r="AK125" s="1"/>
-      <c r="AL125" s="1"/>
-      <c r="AM125" s="1"/>
-      <c r="AN125" s="1"/>
-      <c r="AO125" s="1"/>
-      <c r="AP125" s="1"/>
-      <c r="AQ125" s="1"/>
-    </row>
-    <row r="126" spans="1:43">
+    </row>
+    <row r="126" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -7152,15 +6138,8 @@
       <c r="AH126" s="1"/>
       <c r="AI126" s="1"/>
       <c r="AJ126" s="1"/>
-      <c r="AK126" s="1"/>
-      <c r="AL126" s="1"/>
-      <c r="AM126" s="1"/>
-      <c r="AN126" s="1"/>
-      <c r="AO126" s="1"/>
-      <c r="AP126" s="1"/>
-      <c r="AQ126" s="1"/>
-    </row>
-    <row r="127" spans="1:43">
+    </row>
+    <row r="127" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -7199,15 +6178,8 @@
       <c r="AH127" s="1"/>
       <c r="AI127" s="1"/>
       <c r="AJ127" s="1"/>
-      <c r="AK127" s="1"/>
-      <c r="AL127" s="1"/>
-      <c r="AM127" s="1"/>
-      <c r="AN127" s="1"/>
-      <c r="AO127" s="1"/>
-      <c r="AP127" s="1"/>
-      <c r="AQ127" s="1"/>
-    </row>
-    <row r="128" spans="1:43">
+    </row>
+    <row r="128" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -7246,15 +6218,8 @@
       <c r="AH128" s="1"/>
       <c r="AI128" s="1"/>
       <c r="AJ128" s="1"/>
-      <c r="AK128" s="1"/>
-      <c r="AL128" s="1"/>
-      <c r="AM128" s="1"/>
-      <c r="AN128" s="1"/>
-      <c r="AO128" s="1"/>
-      <c r="AP128" s="1"/>
-      <c r="AQ128" s="1"/>
-    </row>
-    <row r="129" spans="1:43">
+    </row>
+    <row r="129" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -7293,15 +6258,8 @@
       <c r="AH129" s="1"/>
       <c r="AI129" s="1"/>
       <c r="AJ129" s="1"/>
-      <c r="AK129" s="1"/>
-      <c r="AL129" s="1"/>
-      <c r="AM129" s="1"/>
-      <c r="AN129" s="1"/>
-      <c r="AO129" s="1"/>
-      <c r="AP129" s="1"/>
-      <c r="AQ129" s="1"/>
-    </row>
-    <row r="130" spans="1:43">
+    </row>
+    <row r="130" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -7340,15 +6298,8 @@
       <c r="AH130" s="1"/>
       <c r="AI130" s="1"/>
       <c r="AJ130" s="1"/>
-      <c r="AK130" s="1"/>
-      <c r="AL130" s="1"/>
-      <c r="AM130" s="1"/>
-      <c r="AN130" s="1"/>
-      <c r="AO130" s="1"/>
-      <c r="AP130" s="1"/>
-      <c r="AQ130" s="1"/>
-    </row>
-    <row r="131" spans="1:43">
+    </row>
+    <row r="131" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -7387,15 +6338,8 @@
       <c r="AH131" s="1"/>
       <c r="AI131" s="1"/>
       <c r="AJ131" s="1"/>
-      <c r="AK131" s="1"/>
-      <c r="AL131" s="1"/>
-      <c r="AM131" s="1"/>
-      <c r="AN131" s="1"/>
-      <c r="AO131" s="1"/>
-      <c r="AP131" s="1"/>
-      <c r="AQ131" s="1"/>
-    </row>
-    <row r="132" spans="1:43">
+    </row>
+    <row r="132" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -7434,15 +6378,8 @@
       <c r="AH132" s="1"/>
       <c r="AI132" s="1"/>
       <c r="AJ132" s="1"/>
-      <c r="AK132" s="1"/>
-      <c r="AL132" s="1"/>
-      <c r="AM132" s="1"/>
-      <c r="AN132" s="1"/>
-      <c r="AO132" s="1"/>
-      <c r="AP132" s="1"/>
-      <c r="AQ132" s="1"/>
-    </row>
-    <row r="133" spans="1:43">
+    </row>
+    <row r="133" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -7481,15 +6418,8 @@
       <c r="AH133" s="1"/>
       <c r="AI133" s="1"/>
       <c r="AJ133" s="1"/>
-      <c r="AK133" s="1"/>
-      <c r="AL133" s="1"/>
-      <c r="AM133" s="1"/>
-      <c r="AN133" s="1"/>
-      <c r="AO133" s="1"/>
-      <c r="AP133" s="1"/>
-      <c r="AQ133" s="1"/>
-    </row>
-    <row r="134" spans="1:43">
+    </row>
+    <row r="134" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -7528,15 +6458,8 @@
       <c r="AH134" s="1"/>
       <c r="AI134" s="1"/>
       <c r="AJ134" s="1"/>
-      <c r="AK134" s="1"/>
-      <c r="AL134" s="1"/>
-      <c r="AM134" s="1"/>
-      <c r="AN134" s="1"/>
-      <c r="AO134" s="1"/>
-      <c r="AP134" s="1"/>
-      <c r="AQ134" s="1"/>
-    </row>
-    <row r="135" spans="1:43">
+    </row>
+    <row r="135" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -7575,15 +6498,8 @@
       <c r="AH135" s="1"/>
       <c r="AI135" s="1"/>
       <c r="AJ135" s="1"/>
-      <c r="AK135" s="1"/>
-      <c r="AL135" s="1"/>
-      <c r="AM135" s="1"/>
-      <c r="AN135" s="1"/>
-      <c r="AO135" s="1"/>
-      <c r="AP135" s="1"/>
-      <c r="AQ135" s="1"/>
-    </row>
-    <row r="136" spans="1:43">
+    </row>
+    <row r="136" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -7622,15 +6538,8 @@
       <c r="AH136" s="1"/>
       <c r="AI136" s="1"/>
       <c r="AJ136" s="1"/>
-      <c r="AK136" s="1"/>
-      <c r="AL136" s="1"/>
-      <c r="AM136" s="1"/>
-      <c r="AN136" s="1"/>
-      <c r="AO136" s="1"/>
-      <c r="AP136" s="1"/>
-      <c r="AQ136" s="1"/>
-    </row>
-    <row r="137" spans="1:43">
+    </row>
+    <row r="137" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -7669,15 +6578,8 @@
       <c r="AH137" s="1"/>
       <c r="AI137" s="1"/>
       <c r="AJ137" s="1"/>
-      <c r="AK137" s="1"/>
-      <c r="AL137" s="1"/>
-      <c r="AM137" s="1"/>
-      <c r="AN137" s="1"/>
-      <c r="AO137" s="1"/>
-      <c r="AP137" s="1"/>
-      <c r="AQ137" s="1"/>
-    </row>
-    <row r="138" spans="1:43">
+    </row>
+    <row r="138" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -7716,15 +6618,8 @@
       <c r="AH138" s="1"/>
       <c r="AI138" s="1"/>
       <c r="AJ138" s="1"/>
-      <c r="AK138" s="1"/>
-      <c r="AL138" s="1"/>
-      <c r="AM138" s="1"/>
-      <c r="AN138" s="1"/>
-      <c r="AO138" s="1"/>
-      <c r="AP138" s="1"/>
-      <c r="AQ138" s="1"/>
-    </row>
-    <row r="139" spans="1:43">
+    </row>
+    <row r="139" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -7763,15 +6658,8 @@
       <c r="AH139" s="1"/>
       <c r="AI139" s="1"/>
       <c r="AJ139" s="1"/>
-      <c r="AK139" s="1"/>
-      <c r="AL139" s="1"/>
-      <c r="AM139" s="1"/>
-      <c r="AN139" s="1"/>
-      <c r="AO139" s="1"/>
-      <c r="AP139" s="1"/>
-      <c r="AQ139" s="1"/>
-    </row>
-    <row r="140" spans="1:43">
+    </row>
+    <row r="140" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -7810,15 +6698,8 @@
       <c r="AH140" s="1"/>
       <c r="AI140" s="1"/>
       <c r="AJ140" s="1"/>
-      <c r="AK140" s="1"/>
-      <c r="AL140" s="1"/>
-      <c r="AM140" s="1"/>
-      <c r="AN140" s="1"/>
-      <c r="AO140" s="1"/>
-      <c r="AP140" s="1"/>
-      <c r="AQ140" s="1"/>
-    </row>
-    <row r="141" spans="1:43">
+    </row>
+    <row r="141" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -7857,15 +6738,8 @@
       <c r="AH141" s="1"/>
       <c r="AI141" s="1"/>
       <c r="AJ141" s="1"/>
-      <c r="AK141" s="1"/>
-      <c r="AL141" s="1"/>
-      <c r="AM141" s="1"/>
-      <c r="AN141" s="1"/>
-      <c r="AO141" s="1"/>
-      <c r="AP141" s="1"/>
-      <c r="AQ141" s="1"/>
-    </row>
-    <row r="142" spans="1:43">
+    </row>
+    <row r="142" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -7904,15 +6778,8 @@
       <c r="AH142" s="1"/>
       <c r="AI142" s="1"/>
       <c r="AJ142" s="1"/>
-      <c r="AK142" s="1"/>
-      <c r="AL142" s="1"/>
-      <c r="AM142" s="1"/>
-      <c r="AN142" s="1"/>
-      <c r="AO142" s="1"/>
-      <c r="AP142" s="1"/>
-      <c r="AQ142" s="1"/>
-    </row>
-    <row r="143" spans="1:43">
+    </row>
+    <row r="143" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -7951,15 +6818,8 @@
       <c r="AH143" s="1"/>
       <c r="AI143" s="1"/>
       <c r="AJ143" s="1"/>
-      <c r="AK143" s="1"/>
-      <c r="AL143" s="1"/>
-      <c r="AM143" s="1"/>
-      <c r="AN143" s="1"/>
-      <c r="AO143" s="1"/>
-      <c r="AP143" s="1"/>
-      <c r="AQ143" s="1"/>
-    </row>
-    <row r="144" spans="1:43">
+    </row>
+    <row r="144" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -7998,15 +6858,8 @@
       <c r="AH144" s="1"/>
       <c r="AI144" s="1"/>
       <c r="AJ144" s="1"/>
-      <c r="AK144" s="1"/>
-      <c r="AL144" s="1"/>
-      <c r="AM144" s="1"/>
-      <c r="AN144" s="1"/>
-      <c r="AO144" s="1"/>
-      <c r="AP144" s="1"/>
-      <c r="AQ144" s="1"/>
-    </row>
-    <row r="145" spans="1:43">
+    </row>
+    <row r="145" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -8045,15 +6898,8 @@
       <c r="AH145" s="1"/>
       <c r="AI145" s="1"/>
       <c r="AJ145" s="1"/>
-      <c r="AK145" s="1"/>
-      <c r="AL145" s="1"/>
-      <c r="AM145" s="1"/>
-      <c r="AN145" s="1"/>
-      <c r="AO145" s="1"/>
-      <c r="AP145" s="1"/>
-      <c r="AQ145" s="1"/>
-    </row>
-    <row r="146" spans="1:43">
+    </row>
+    <row r="146" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -8092,15 +6938,8 @@
       <c r="AH146" s="1"/>
       <c r="AI146" s="1"/>
       <c r="AJ146" s="1"/>
-      <c r="AK146" s="1"/>
-      <c r="AL146" s="1"/>
-      <c r="AM146" s="1"/>
-      <c r="AN146" s="1"/>
-      <c r="AO146" s="1"/>
-      <c r="AP146" s="1"/>
-      <c r="AQ146" s="1"/>
-    </row>
-    <row r="147" spans="1:43">
+    </row>
+    <row r="147" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -8139,15 +6978,8 @@
       <c r="AH147" s="1"/>
       <c r="AI147" s="1"/>
       <c r="AJ147" s="1"/>
-      <c r="AK147" s="1"/>
-      <c r="AL147" s="1"/>
-      <c r="AM147" s="1"/>
-      <c r="AN147" s="1"/>
-      <c r="AO147" s="1"/>
-      <c r="AP147" s="1"/>
-      <c r="AQ147" s="1"/>
-    </row>
-    <row r="148" spans="1:43">
+    </row>
+    <row r="148" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -8186,15 +7018,8 @@
       <c r="AH148" s="1"/>
       <c r="AI148" s="1"/>
       <c r="AJ148" s="1"/>
-      <c r="AK148" s="1"/>
-      <c r="AL148" s="1"/>
-      <c r="AM148" s="1"/>
-      <c r="AN148" s="1"/>
-      <c r="AO148" s="1"/>
-      <c r="AP148" s="1"/>
-      <c r="AQ148" s="1"/>
-    </row>
-    <row r="149" spans="1:43">
+    </row>
+    <row r="149" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -8233,15 +7058,8 @@
       <c r="AH149" s="1"/>
       <c r="AI149" s="1"/>
       <c r="AJ149" s="1"/>
-      <c r="AK149" s="1"/>
-      <c r="AL149" s="1"/>
-      <c r="AM149" s="1"/>
-      <c r="AN149" s="1"/>
-      <c r="AO149" s="1"/>
-      <c r="AP149" s="1"/>
-      <c r="AQ149" s="1"/>
-    </row>
-    <row r="150" spans="1:43">
+    </row>
+    <row r="150" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -8280,15 +7098,8 @@
       <c r="AH150" s="1"/>
       <c r="AI150" s="1"/>
       <c r="AJ150" s="1"/>
-      <c r="AK150" s="1"/>
-      <c r="AL150" s="1"/>
-      <c r="AM150" s="1"/>
-      <c r="AN150" s="1"/>
-      <c r="AO150" s="1"/>
-      <c r="AP150" s="1"/>
-      <c r="AQ150" s="1"/>
-    </row>
-    <row r="151" spans="1:43">
+    </row>
+    <row r="151" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -8327,15 +7138,8 @@
       <c r="AH151" s="1"/>
       <c r="AI151" s="1"/>
       <c r="AJ151" s="1"/>
-      <c r="AK151" s="1"/>
-      <c r="AL151" s="1"/>
-      <c r="AM151" s="1"/>
-      <c r="AN151" s="1"/>
-      <c r="AO151" s="1"/>
-      <c r="AP151" s="1"/>
-      <c r="AQ151" s="1"/>
-    </row>
-    <row r="152" spans="1:43">
+    </row>
+    <row r="152" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -8374,15 +7178,8 @@
       <c r="AH152" s="1"/>
       <c r="AI152" s="1"/>
       <c r="AJ152" s="1"/>
-      <c r="AK152" s="1"/>
-      <c r="AL152" s="1"/>
-      <c r="AM152" s="1"/>
-      <c r="AN152" s="1"/>
-      <c r="AO152" s="1"/>
-      <c r="AP152" s="1"/>
-      <c r="AQ152" s="1"/>
-    </row>
-    <row r="153" spans="1:43">
+    </row>
+    <row r="153" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -8421,15 +7218,8 @@
       <c r="AH153" s="1"/>
       <c r="AI153" s="1"/>
       <c r="AJ153" s="1"/>
-      <c r="AK153" s="1"/>
-      <c r="AL153" s="1"/>
-      <c r="AM153" s="1"/>
-      <c r="AN153" s="1"/>
-      <c r="AO153" s="1"/>
-      <c r="AP153" s="1"/>
-      <c r="AQ153" s="1"/>
-    </row>
-    <row r="154" spans="1:43">
+    </row>
+    <row r="154" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -8468,15 +7258,8 @@
       <c r="AH154" s="1"/>
       <c r="AI154" s="1"/>
       <c r="AJ154" s="1"/>
-      <c r="AK154" s="1"/>
-      <c r="AL154" s="1"/>
-      <c r="AM154" s="1"/>
-      <c r="AN154" s="1"/>
-      <c r="AO154" s="1"/>
-      <c r="AP154" s="1"/>
-      <c r="AQ154" s="1"/>
-    </row>
-    <row r="155" spans="1:43">
+    </row>
+    <row r="155" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -8515,15 +7298,8 @@
       <c r="AH155" s="1"/>
       <c r="AI155" s="1"/>
       <c r="AJ155" s="1"/>
-      <c r="AK155" s="1"/>
-      <c r="AL155" s="1"/>
-      <c r="AM155" s="1"/>
-      <c r="AN155" s="1"/>
-      <c r="AO155" s="1"/>
-      <c r="AP155" s="1"/>
-      <c r="AQ155" s="1"/>
-    </row>
-    <row r="156" spans="1:43">
+    </row>
+    <row r="156" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -8562,15 +7338,8 @@
       <c r="AH156" s="1"/>
       <c r="AI156" s="1"/>
       <c r="AJ156" s="1"/>
-      <c r="AK156" s="1"/>
-      <c r="AL156" s="1"/>
-      <c r="AM156" s="1"/>
-      <c r="AN156" s="1"/>
-      <c r="AO156" s="1"/>
-      <c r="AP156" s="1"/>
-      <c r="AQ156" s="1"/>
-    </row>
-    <row r="157" spans="1:43">
+    </row>
+    <row r="157" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -8609,15 +7378,8 @@
       <c r="AH157" s="1"/>
       <c r="AI157" s="1"/>
       <c r="AJ157" s="1"/>
-      <c r="AK157" s="1"/>
-      <c r="AL157" s="1"/>
-      <c r="AM157" s="1"/>
-      <c r="AN157" s="1"/>
-      <c r="AO157" s="1"/>
-      <c r="AP157" s="1"/>
-      <c r="AQ157" s="1"/>
-    </row>
-    <row r="158" spans="1:43">
+    </row>
+    <row r="158" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -8656,15 +7418,8 @@
       <c r="AH158" s="1"/>
       <c r="AI158" s="1"/>
       <c r="AJ158" s="1"/>
-      <c r="AK158" s="1"/>
-      <c r="AL158" s="1"/>
-      <c r="AM158" s="1"/>
-      <c r="AN158" s="1"/>
-      <c r="AO158" s="1"/>
-      <c r="AP158" s="1"/>
-      <c r="AQ158" s="1"/>
-    </row>
-    <row r="159" spans="1:43">
+    </row>
+    <row r="159" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -8703,15 +7458,8 @@
       <c r="AH159" s="1"/>
       <c r="AI159" s="1"/>
       <c r="AJ159" s="1"/>
-      <c r="AK159" s="1"/>
-      <c r="AL159" s="1"/>
-      <c r="AM159" s="1"/>
-      <c r="AN159" s="1"/>
-      <c r="AO159" s="1"/>
-      <c r="AP159" s="1"/>
-      <c r="AQ159" s="1"/>
-    </row>
-    <row r="160" spans="1:43">
+    </row>
+    <row r="160" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -8750,15 +7498,8 @@
       <c r="AH160" s="1"/>
       <c r="AI160" s="1"/>
       <c r="AJ160" s="1"/>
-      <c r="AK160" s="1"/>
-      <c r="AL160" s="1"/>
-      <c r="AM160" s="1"/>
-      <c r="AN160" s="1"/>
-      <c r="AO160" s="1"/>
-      <c r="AP160" s="1"/>
-      <c r="AQ160" s="1"/>
-    </row>
-    <row r="161" spans="1:43">
+    </row>
+    <row r="161" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -8797,15 +7538,8 @@
       <c r="AH161" s="1"/>
       <c r="AI161" s="1"/>
       <c r="AJ161" s="1"/>
-      <c r="AK161" s="1"/>
-      <c r="AL161" s="1"/>
-      <c r="AM161" s="1"/>
-      <c r="AN161" s="1"/>
-      <c r="AO161" s="1"/>
-      <c r="AP161" s="1"/>
-      <c r="AQ161" s="1"/>
-    </row>
-    <row r="162" spans="1:43">
+    </row>
+    <row r="162" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -8844,15 +7578,8 @@
       <c r="AH162" s="1"/>
       <c r="AI162" s="1"/>
       <c r="AJ162" s="1"/>
-      <c r="AK162" s="1"/>
-      <c r="AL162" s="1"/>
-      <c r="AM162" s="1"/>
-      <c r="AN162" s="1"/>
-      <c r="AO162" s="1"/>
-      <c r="AP162" s="1"/>
-      <c r="AQ162" s="1"/>
-    </row>
-    <row r="163" spans="1:43">
+    </row>
+    <row r="163" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -8891,15 +7618,8 @@
       <c r="AH163" s="1"/>
       <c r="AI163" s="1"/>
       <c r="AJ163" s="1"/>
-      <c r="AK163" s="1"/>
-      <c r="AL163" s="1"/>
-      <c r="AM163" s="1"/>
-      <c r="AN163" s="1"/>
-      <c r="AO163" s="1"/>
-      <c r="AP163" s="1"/>
-      <c r="AQ163" s="1"/>
-    </row>
-    <row r="164" spans="1:43">
+    </row>
+    <row r="164" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -8938,15 +7658,8 @@
       <c r="AH164" s="1"/>
       <c r="AI164" s="1"/>
       <c r="AJ164" s="1"/>
-      <c r="AK164" s="1"/>
-      <c r="AL164" s="1"/>
-      <c r="AM164" s="1"/>
-      <c r="AN164" s="1"/>
-      <c r="AO164" s="1"/>
-      <c r="AP164" s="1"/>
-      <c r="AQ164" s="1"/>
-    </row>
-    <row r="165" spans="1:43">
+    </row>
+    <row r="165" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -8985,15 +7698,8 @@
       <c r="AH165" s="1"/>
       <c r="AI165" s="1"/>
       <c r="AJ165" s="1"/>
-      <c r="AK165" s="1"/>
-      <c r="AL165" s="1"/>
-      <c r="AM165" s="1"/>
-      <c r="AN165" s="1"/>
-      <c r="AO165" s="1"/>
-      <c r="AP165" s="1"/>
-      <c r="AQ165" s="1"/>
-    </row>
-    <row r="166" spans="1:43">
+    </row>
+    <row r="166" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -9032,15 +7738,8 @@
       <c r="AH166" s="1"/>
       <c r="AI166" s="1"/>
       <c r="AJ166" s="1"/>
-      <c r="AK166" s="1"/>
-      <c r="AL166" s="1"/>
-      <c r="AM166" s="1"/>
-      <c r="AN166" s="1"/>
-      <c r="AO166" s="1"/>
-      <c r="AP166" s="1"/>
-      <c r="AQ166" s="1"/>
-    </row>
-    <row r="167" spans="1:43">
+    </row>
+    <row r="167" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -9079,15 +7778,8 @@
       <c r="AH167" s="1"/>
       <c r="AI167" s="1"/>
       <c r="AJ167" s="1"/>
-      <c r="AK167" s="1"/>
-      <c r="AL167" s="1"/>
-      <c r="AM167" s="1"/>
-      <c r="AN167" s="1"/>
-      <c r="AO167" s="1"/>
-      <c r="AP167" s="1"/>
-      <c r="AQ167" s="1"/>
-    </row>
-    <row r="168" spans="1:43">
+    </row>
+    <row r="168" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -9126,15 +7818,8 @@
       <c r="AH168" s="1"/>
       <c r="AI168" s="1"/>
       <c r="AJ168" s="1"/>
-      <c r="AK168" s="1"/>
-      <c r="AL168" s="1"/>
-      <c r="AM168" s="1"/>
-      <c r="AN168" s="1"/>
-      <c r="AO168" s="1"/>
-      <c r="AP168" s="1"/>
-      <c r="AQ168" s="1"/>
-    </row>
-    <row r="169" spans="1:43">
+    </row>
+    <row r="169" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -9173,15 +7858,8 @@
       <c r="AH169" s="1"/>
       <c r="AI169" s="1"/>
       <c r="AJ169" s="1"/>
-      <c r="AK169" s="1"/>
-      <c r="AL169" s="1"/>
-      <c r="AM169" s="1"/>
-      <c r="AN169" s="1"/>
-      <c r="AO169" s="1"/>
-      <c r="AP169" s="1"/>
-      <c r="AQ169" s="1"/>
-    </row>
-    <row r="170" spans="1:43">
+    </row>
+    <row r="170" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -9220,15 +7898,8 @@
       <c r="AH170" s="1"/>
       <c r="AI170" s="1"/>
       <c r="AJ170" s="1"/>
-      <c r="AK170" s="1"/>
-      <c r="AL170" s="1"/>
-      <c r="AM170" s="1"/>
-      <c r="AN170" s="1"/>
-      <c r="AO170" s="1"/>
-      <c r="AP170" s="1"/>
-      <c r="AQ170" s="1"/>
-    </row>
-    <row r="171" spans="1:43">
+    </row>
+    <row r="171" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -9267,15 +7938,8 @@
       <c r="AH171" s="1"/>
       <c r="AI171" s="1"/>
       <c r="AJ171" s="1"/>
-      <c r="AK171" s="1"/>
-      <c r="AL171" s="1"/>
-      <c r="AM171" s="1"/>
-      <c r="AN171" s="1"/>
-      <c r="AO171" s="1"/>
-      <c r="AP171" s="1"/>
-      <c r="AQ171" s="1"/>
-    </row>
-    <row r="172" spans="1:43">
+    </row>
+    <row r="172" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -9314,15 +7978,8 @@
       <c r="AH172" s="1"/>
       <c r="AI172" s="1"/>
       <c r="AJ172" s="1"/>
-      <c r="AK172" s="1"/>
-      <c r="AL172" s="1"/>
-      <c r="AM172" s="1"/>
-      <c r="AN172" s="1"/>
-      <c r="AO172" s="1"/>
-      <c r="AP172" s="1"/>
-      <c r="AQ172" s="1"/>
-    </row>
-    <row r="173" spans="1:43">
+    </row>
+    <row r="173" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -9361,15 +8018,8 @@
       <c r="AH173" s="1"/>
       <c r="AI173" s="1"/>
       <c r="AJ173" s="1"/>
-      <c r="AK173" s="1"/>
-      <c r="AL173" s="1"/>
-      <c r="AM173" s="1"/>
-      <c r="AN173" s="1"/>
-      <c r="AO173" s="1"/>
-      <c r="AP173" s="1"/>
-      <c r="AQ173" s="1"/>
-    </row>
-    <row r="174" spans="1:43">
+    </row>
+    <row r="174" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -9408,15 +8058,8 @@
       <c r="AH174" s="1"/>
       <c r="AI174" s="1"/>
       <c r="AJ174" s="1"/>
-      <c r="AK174" s="1"/>
-      <c r="AL174" s="1"/>
-      <c r="AM174" s="1"/>
-      <c r="AN174" s="1"/>
-      <c r="AO174" s="1"/>
-      <c r="AP174" s="1"/>
-      <c r="AQ174" s="1"/>
-    </row>
-    <row r="175" spans="1:43">
+    </row>
+    <row r="175" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -9455,15 +8098,8 @@
       <c r="AH175" s="1"/>
       <c r="AI175" s="1"/>
       <c r="AJ175" s="1"/>
-      <c r="AK175" s="1"/>
-      <c r="AL175" s="1"/>
-      <c r="AM175" s="1"/>
-      <c r="AN175" s="1"/>
-      <c r="AO175" s="1"/>
-      <c r="AP175" s="1"/>
-      <c r="AQ175" s="1"/>
-    </row>
-    <row r="176" spans="1:43">
+    </row>
+    <row r="176" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -9502,15 +8138,8 @@
       <c r="AH176" s="1"/>
       <c r="AI176" s="1"/>
       <c r="AJ176" s="1"/>
-      <c r="AK176" s="1"/>
-      <c r="AL176" s="1"/>
-      <c r="AM176" s="1"/>
-      <c r="AN176" s="1"/>
-      <c r="AO176" s="1"/>
-      <c r="AP176" s="1"/>
-      <c r="AQ176" s="1"/>
-    </row>
-    <row r="177" spans="1:43">
+    </row>
+    <row r="177" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -9549,15 +8178,8 @@
       <c r="AH177" s="1"/>
       <c r="AI177" s="1"/>
       <c r="AJ177" s="1"/>
-      <c r="AK177" s="1"/>
-      <c r="AL177" s="1"/>
-      <c r="AM177" s="1"/>
-      <c r="AN177" s="1"/>
-      <c r="AO177" s="1"/>
-      <c r="AP177" s="1"/>
-      <c r="AQ177" s="1"/>
-    </row>
-    <row r="178" spans="1:43">
+    </row>
+    <row r="178" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -9596,15 +8218,8 @@
       <c r="AH178" s="1"/>
       <c r="AI178" s="1"/>
       <c r="AJ178" s="1"/>
-      <c r="AK178" s="1"/>
-      <c r="AL178" s="1"/>
-      <c r="AM178" s="1"/>
-      <c r="AN178" s="1"/>
-      <c r="AO178" s="1"/>
-      <c r="AP178" s="1"/>
-      <c r="AQ178" s="1"/>
-    </row>
-    <row r="179" spans="1:43">
+    </row>
+    <row r="179" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -9643,15 +8258,8 @@
       <c r="AH179" s="1"/>
       <c r="AI179" s="1"/>
       <c r="AJ179" s="1"/>
-      <c r="AK179" s="1"/>
-      <c r="AL179" s="1"/>
-      <c r="AM179" s="1"/>
-      <c r="AN179" s="1"/>
-      <c r="AO179" s="1"/>
-      <c r="AP179" s="1"/>
-      <c r="AQ179" s="1"/>
-    </row>
-    <row r="180" spans="1:43">
+    </row>
+    <row r="180" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -9690,15 +8298,8 @@
       <c r="AH180" s="1"/>
       <c r="AI180" s="1"/>
       <c r="AJ180" s="1"/>
-      <c r="AK180" s="1"/>
-      <c r="AL180" s="1"/>
-      <c r="AM180" s="1"/>
-      <c r="AN180" s="1"/>
-      <c r="AO180" s="1"/>
-      <c r="AP180" s="1"/>
-      <c r="AQ180" s="1"/>
-    </row>
-    <row r="181" spans="1:43">
+    </row>
+    <row r="181" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -9737,15 +8338,8 @@
       <c r="AH181" s="1"/>
       <c r="AI181" s="1"/>
       <c r="AJ181" s="1"/>
-      <c r="AK181" s="1"/>
-      <c r="AL181" s="1"/>
-      <c r="AM181" s="1"/>
-      <c r="AN181" s="1"/>
-      <c r="AO181" s="1"/>
-      <c r="AP181" s="1"/>
-      <c r="AQ181" s="1"/>
-    </row>
-    <row r="182" spans="1:43">
+    </row>
+    <row r="182" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -9784,15 +8378,8 @@
       <c r="AH182" s="1"/>
       <c r="AI182" s="1"/>
       <c r="AJ182" s="1"/>
-      <c r="AK182" s="1"/>
-      <c r="AL182" s="1"/>
-      <c r="AM182" s="1"/>
-      <c r="AN182" s="1"/>
-      <c r="AO182" s="1"/>
-      <c r="AP182" s="1"/>
-      <c r="AQ182" s="1"/>
-    </row>
-    <row r="183" spans="1:43">
+    </row>
+    <row r="183" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -9831,15 +8418,8 @@
       <c r="AH183" s="1"/>
       <c r="AI183" s="1"/>
       <c r="AJ183" s="1"/>
-      <c r="AK183" s="1"/>
-      <c r="AL183" s="1"/>
-      <c r="AM183" s="1"/>
-      <c r="AN183" s="1"/>
-      <c r="AO183" s="1"/>
-      <c r="AP183" s="1"/>
-      <c r="AQ183" s="1"/>
-    </row>
-    <row r="184" spans="1:43">
+    </row>
+    <row r="184" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -9878,15 +8458,8 @@
       <c r="AH184" s="1"/>
       <c r="AI184" s="1"/>
       <c r="AJ184" s="1"/>
-      <c r="AK184" s="1"/>
-      <c r="AL184" s="1"/>
-      <c r="AM184" s="1"/>
-      <c r="AN184" s="1"/>
-      <c r="AO184" s="1"/>
-      <c r="AP184" s="1"/>
-      <c r="AQ184" s="1"/>
-    </row>
-    <row r="185" spans="1:43">
+    </row>
+    <row r="185" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -9925,15 +8498,8 @@
       <c r="AH185" s="1"/>
       <c r="AI185" s="1"/>
       <c r="AJ185" s="1"/>
-      <c r="AK185" s="1"/>
-      <c r="AL185" s="1"/>
-      <c r="AM185" s="1"/>
-      <c r="AN185" s="1"/>
-      <c r="AO185" s="1"/>
-      <c r="AP185" s="1"/>
-      <c r="AQ185" s="1"/>
-    </row>
-    <row r="186" spans="1:43">
+    </row>
+    <row r="186" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -9972,15 +8538,8 @@
       <c r="AH186" s="1"/>
       <c r="AI186" s="1"/>
       <c r="AJ186" s="1"/>
-      <c r="AK186" s="1"/>
-      <c r="AL186" s="1"/>
-      <c r="AM186" s="1"/>
-      <c r="AN186" s="1"/>
-      <c r="AO186" s="1"/>
-      <c r="AP186" s="1"/>
-      <c r="AQ186" s="1"/>
-    </row>
-    <row r="187" spans="1:43">
+    </row>
+    <row r="187" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -10019,15 +8578,8 @@
       <c r="AH187" s="1"/>
       <c r="AI187" s="1"/>
       <c r="AJ187" s="1"/>
-      <c r="AK187" s="1"/>
-      <c r="AL187" s="1"/>
-      <c r="AM187" s="1"/>
-      <c r="AN187" s="1"/>
-      <c r="AO187" s="1"/>
-      <c r="AP187" s="1"/>
-      <c r="AQ187" s="1"/>
-    </row>
-    <row r="188" spans="1:43">
+    </row>
+    <row r="188" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -10066,15 +8618,8 @@
       <c r="AH188" s="1"/>
       <c r="AI188" s="1"/>
       <c r="AJ188" s="1"/>
-      <c r="AK188" s="1"/>
-      <c r="AL188" s="1"/>
-      <c r="AM188" s="1"/>
-      <c r="AN188" s="1"/>
-      <c r="AO188" s="1"/>
-      <c r="AP188" s="1"/>
-      <c r="AQ188" s="1"/>
-    </row>
-    <row r="189" spans="1:43">
+    </row>
+    <row r="189" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -10113,15 +8658,8 @@
       <c r="AH189" s="1"/>
       <c r="AI189" s="1"/>
       <c r="AJ189" s="1"/>
-      <c r="AK189" s="1"/>
-      <c r="AL189" s="1"/>
-      <c r="AM189" s="1"/>
-      <c r="AN189" s="1"/>
-      <c r="AO189" s="1"/>
-      <c r="AP189" s="1"/>
-      <c r="AQ189" s="1"/>
-    </row>
-    <row r="190" spans="1:43">
+    </row>
+    <row r="190" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -10160,15 +8698,8 @@
       <c r="AH190" s="1"/>
       <c r="AI190" s="1"/>
       <c r="AJ190" s="1"/>
-      <c r="AK190" s="1"/>
-      <c r="AL190" s="1"/>
-      <c r="AM190" s="1"/>
-      <c r="AN190" s="1"/>
-      <c r="AO190" s="1"/>
-      <c r="AP190" s="1"/>
-      <c r="AQ190" s="1"/>
-    </row>
-    <row r="191" spans="1:43">
+    </row>
+    <row r="191" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -10207,15 +8738,8 @@
       <c r="AH191" s="1"/>
       <c r="AI191" s="1"/>
       <c r="AJ191" s="1"/>
-      <c r="AK191" s="1"/>
-      <c r="AL191" s="1"/>
-      <c r="AM191" s="1"/>
-      <c r="AN191" s="1"/>
-      <c r="AO191" s="1"/>
-      <c r="AP191" s="1"/>
-      <c r="AQ191" s="1"/>
-    </row>
-    <row r="192" spans="1:43">
+    </row>
+    <row r="192" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -10254,15 +8778,8 @@
       <c r="AH192" s="1"/>
       <c r="AI192" s="1"/>
       <c r="AJ192" s="1"/>
-      <c r="AK192" s="1"/>
-      <c r="AL192" s="1"/>
-      <c r="AM192" s="1"/>
-      <c r="AN192" s="1"/>
-      <c r="AO192" s="1"/>
-      <c r="AP192" s="1"/>
-      <c r="AQ192" s="1"/>
-    </row>
-    <row r="193" spans="1:43">
+    </row>
+    <row r="193" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -10301,15 +8818,8 @@
       <c r="AH193" s="1"/>
       <c r="AI193" s="1"/>
       <c r="AJ193" s="1"/>
-      <c r="AK193" s="1"/>
-      <c r="AL193" s="1"/>
-      <c r="AM193" s="1"/>
-      <c r="AN193" s="1"/>
-      <c r="AO193" s="1"/>
-      <c r="AP193" s="1"/>
-      <c r="AQ193" s="1"/>
-    </row>
-    <row r="194" spans="1:43">
+    </row>
+    <row r="194" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -10348,15 +8858,8 @@
       <c r="AH194" s="1"/>
       <c r="AI194" s="1"/>
       <c r="AJ194" s="1"/>
-      <c r="AK194" s="1"/>
-      <c r="AL194" s="1"/>
-      <c r="AM194" s="1"/>
-      <c r="AN194" s="1"/>
-      <c r="AO194" s="1"/>
-      <c r="AP194" s="1"/>
-      <c r="AQ194" s="1"/>
-    </row>
-    <row r="195" spans="1:43">
+    </row>
+    <row r="195" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -10395,15 +8898,8 @@
       <c r="AH195" s="1"/>
       <c r="AI195" s="1"/>
       <c r="AJ195" s="1"/>
-      <c r="AK195" s="1"/>
-      <c r="AL195" s="1"/>
-      <c r="AM195" s="1"/>
-      <c r="AN195" s="1"/>
-      <c r="AO195" s="1"/>
-      <c r="AP195" s="1"/>
-      <c r="AQ195" s="1"/>
-    </row>
-    <row r="196" spans="1:43">
+    </row>
+    <row r="196" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -10442,15 +8938,8 @@
       <c r="AH196" s="1"/>
       <c r="AI196" s="1"/>
       <c r="AJ196" s="1"/>
-      <c r="AK196" s="1"/>
-      <c r="AL196" s="1"/>
-      <c r="AM196" s="1"/>
-      <c r="AN196" s="1"/>
-      <c r="AO196" s="1"/>
-      <c r="AP196" s="1"/>
-      <c r="AQ196" s="1"/>
-    </row>
-    <row r="197" spans="1:43">
+    </row>
+    <row r="197" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -10489,15 +8978,8 @@
       <c r="AH197" s="1"/>
       <c r="AI197" s="1"/>
       <c r="AJ197" s="1"/>
-      <c r="AK197" s="1"/>
-      <c r="AL197" s="1"/>
-      <c r="AM197" s="1"/>
-      <c r="AN197" s="1"/>
-      <c r="AO197" s="1"/>
-      <c r="AP197" s="1"/>
-      <c r="AQ197" s="1"/>
-    </row>
-    <row r="198" spans="1:43">
+    </row>
+    <row r="198" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -10536,15 +9018,8 @@
       <c r="AH198" s="1"/>
       <c r="AI198" s="1"/>
       <c r="AJ198" s="1"/>
-      <c r="AK198" s="1"/>
-      <c r="AL198" s="1"/>
-      <c r="AM198" s="1"/>
-      <c r="AN198" s="1"/>
-      <c r="AO198" s="1"/>
-      <c r="AP198" s="1"/>
-      <c r="AQ198" s="1"/>
-    </row>
-    <row r="199" spans="1:43">
+    </row>
+    <row r="199" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -10583,15 +9058,8 @@
       <c r="AH199" s="1"/>
       <c r="AI199" s="1"/>
       <c r="AJ199" s="1"/>
-      <c r="AK199" s="1"/>
-      <c r="AL199" s="1"/>
-      <c r="AM199" s="1"/>
-      <c r="AN199" s="1"/>
-      <c r="AO199" s="1"/>
-      <c r="AP199" s="1"/>
-      <c r="AQ199" s="1"/>
-    </row>
-    <row r="200" spans="1:43">
+    </row>
+    <row r="200" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -10630,15 +9098,8 @@
       <c r="AH200" s="1"/>
       <c r="AI200" s="1"/>
       <c r="AJ200" s="1"/>
-      <c r="AK200" s="1"/>
-      <c r="AL200" s="1"/>
-      <c r="AM200" s="1"/>
-      <c r="AN200" s="1"/>
-      <c r="AO200" s="1"/>
-      <c r="AP200" s="1"/>
-      <c r="AQ200" s="1"/>
-    </row>
-    <row r="201" spans="1:43">
+    </row>
+    <row r="201" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -10677,15 +9138,8 @@
       <c r="AH201" s="1"/>
       <c r="AI201" s="1"/>
       <c r="AJ201" s="1"/>
-      <c r="AK201" s="1"/>
-      <c r="AL201" s="1"/>
-      <c r="AM201" s="1"/>
-      <c r="AN201" s="1"/>
-      <c r="AO201" s="1"/>
-      <c r="AP201" s="1"/>
-      <c r="AQ201" s="1"/>
-    </row>
-    <row r="202" spans="1:43">
+    </row>
+    <row r="202" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -10724,15 +9178,8 @@
       <c r="AH202" s="1"/>
       <c r="AI202" s="1"/>
       <c r="AJ202" s="1"/>
-      <c r="AK202" s="1"/>
-      <c r="AL202" s="1"/>
-      <c r="AM202" s="1"/>
-      <c r="AN202" s="1"/>
-      <c r="AO202" s="1"/>
-      <c r="AP202" s="1"/>
-      <c r="AQ202" s="1"/>
-    </row>
-    <row r="203" spans="1:43">
+    </row>
+    <row r="203" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -10771,15 +9218,8 @@
       <c r="AH203" s="1"/>
       <c r="AI203" s="1"/>
       <c r="AJ203" s="1"/>
-      <c r="AK203" s="1"/>
-      <c r="AL203" s="1"/>
-      <c r="AM203" s="1"/>
-      <c r="AN203" s="1"/>
-      <c r="AO203" s="1"/>
-      <c r="AP203" s="1"/>
-      <c r="AQ203" s="1"/>
-    </row>
-    <row r="204" spans="1:43">
+    </row>
+    <row r="204" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -10818,15 +9258,8 @@
       <c r="AH204" s="1"/>
       <c r="AI204" s="1"/>
       <c r="AJ204" s="1"/>
-      <c r="AK204" s="1"/>
-      <c r="AL204" s="1"/>
-      <c r="AM204" s="1"/>
-      <c r="AN204" s="1"/>
-      <c r="AO204" s="1"/>
-      <c r="AP204" s="1"/>
-      <c r="AQ204" s="1"/>
-    </row>
-    <row r="205" spans="1:43">
+    </row>
+    <row r="205" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -10865,15 +9298,8 @@
       <c r="AH205" s="1"/>
       <c r="AI205" s="1"/>
       <c r="AJ205" s="1"/>
-      <c r="AK205" s="1"/>
-      <c r="AL205" s="1"/>
-      <c r="AM205" s="1"/>
-      <c r="AN205" s="1"/>
-      <c r="AO205" s="1"/>
-      <c r="AP205" s="1"/>
-      <c r="AQ205" s="1"/>
-    </row>
-    <row r="206" spans="1:43">
+    </row>
+    <row r="206" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -10912,15 +9338,8 @@
       <c r="AH206" s="1"/>
       <c r="AI206" s="1"/>
       <c r="AJ206" s="1"/>
-      <c r="AK206" s="1"/>
-      <c r="AL206" s="1"/>
-      <c r="AM206" s="1"/>
-      <c r="AN206" s="1"/>
-      <c r="AO206" s="1"/>
-      <c r="AP206" s="1"/>
-      <c r="AQ206" s="1"/>
-    </row>
-    <row r="207" spans="1:43">
+    </row>
+    <row r="207" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -10959,15 +9378,8 @@
       <c r="AH207" s="1"/>
       <c r="AI207" s="1"/>
       <c r="AJ207" s="1"/>
-      <c r="AK207" s="1"/>
-      <c r="AL207" s="1"/>
-      <c r="AM207" s="1"/>
-      <c r="AN207" s="1"/>
-      <c r="AO207" s="1"/>
-      <c r="AP207" s="1"/>
-      <c r="AQ207" s="1"/>
-    </row>
-    <row r="208" spans="1:43">
+    </row>
+    <row r="208" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A208" s="4">
         <v>207</v>
       </c>
@@ -11006,15 +9418,8 @@
       <c r="AH208" s="1"/>
       <c r="AI208" s="1"/>
       <c r="AJ208" s="1"/>
-      <c r="AK208" s="1"/>
-      <c r="AL208" s="1"/>
-      <c r="AM208" s="1"/>
-      <c r="AN208" s="1"/>
-      <c r="AO208" s="1"/>
-      <c r="AP208" s="1"/>
-      <c r="AQ208" s="1"/>
-    </row>
-    <row r="209" spans="1:43">
+    </row>
+    <row r="209" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -11053,15 +9458,8 @@
       <c r="AH209" s="1"/>
       <c r="AI209" s="1"/>
       <c r="AJ209" s="1"/>
-      <c r="AK209" s="1"/>
-      <c r="AL209" s="1"/>
-      <c r="AM209" s="1"/>
-      <c r="AN209" s="1"/>
-      <c r="AO209" s="1"/>
-      <c r="AP209" s="1"/>
-      <c r="AQ209" s="1"/>
-    </row>
-    <row r="210" spans="1:43">
+    </row>
+    <row r="210" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -11100,15 +9498,8 @@
       <c r="AH210" s="1"/>
       <c r="AI210" s="1"/>
       <c r="AJ210" s="1"/>
-      <c r="AK210" s="1"/>
-      <c r="AL210" s="1"/>
-      <c r="AM210" s="1"/>
-      <c r="AN210" s="1"/>
-      <c r="AO210" s="1"/>
-      <c r="AP210" s="1"/>
-      <c r="AQ210" s="1"/>
-    </row>
-    <row r="211" spans="1:43">
+    </row>
+    <row r="211" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -11147,15 +9538,8 @@
       <c r="AH211" s="1"/>
       <c r="AI211" s="1"/>
       <c r="AJ211" s="1"/>
-      <c r="AK211" s="1"/>
-      <c r="AL211" s="1"/>
-      <c r="AM211" s="1"/>
-      <c r="AN211" s="1"/>
-      <c r="AO211" s="1"/>
-      <c r="AP211" s="1"/>
-      <c r="AQ211" s="1"/>
-    </row>
-    <row r="212" spans="1:43">
+    </row>
+    <row r="212" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -11194,15 +9578,8 @@
       <c r="AH212" s="1"/>
       <c r="AI212" s="1"/>
       <c r="AJ212" s="1"/>
-      <c r="AK212" s="1"/>
-      <c r="AL212" s="1"/>
-      <c r="AM212" s="1"/>
-      <c r="AN212" s="1"/>
-      <c r="AO212" s="1"/>
-      <c r="AP212" s="1"/>
-      <c r="AQ212" s="1"/>
-    </row>
-    <row r="213" spans="1:43">
+    </row>
+    <row r="213" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -11241,15 +9618,8 @@
       <c r="AH213" s="1"/>
       <c r="AI213" s="1"/>
       <c r="AJ213" s="1"/>
-      <c r="AK213" s="1"/>
-      <c r="AL213" s="1"/>
-      <c r="AM213" s="1"/>
-      <c r="AN213" s="1"/>
-      <c r="AO213" s="1"/>
-      <c r="AP213" s="1"/>
-      <c r="AQ213" s="1"/>
-    </row>
-    <row r="214" spans="1:43">
+    </row>
+    <row r="214" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -11288,15 +9658,8 @@
       <c r="AH214" s="1"/>
       <c r="AI214" s="1"/>
       <c r="AJ214" s="1"/>
-      <c r="AK214" s="1"/>
-      <c r="AL214" s="1"/>
-      <c r="AM214" s="1"/>
-      <c r="AN214" s="1"/>
-      <c r="AO214" s="1"/>
-      <c r="AP214" s="1"/>
-      <c r="AQ214" s="1"/>
-    </row>
-    <row r="215" spans="1:43">
+    </row>
+    <row r="215" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -11335,15 +9698,8 @@
       <c r="AH215" s="1"/>
       <c r="AI215" s="1"/>
       <c r="AJ215" s="1"/>
-      <c r="AK215" s="1"/>
-      <c r="AL215" s="1"/>
-      <c r="AM215" s="1"/>
-      <c r="AN215" s="1"/>
-      <c r="AO215" s="1"/>
-      <c r="AP215" s="1"/>
-      <c r="AQ215" s="1"/>
-    </row>
-    <row r="216" spans="1:43">
+    </row>
+    <row r="216" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -11382,15 +9738,8 @@
       <c r="AH216" s="1"/>
       <c r="AI216" s="1"/>
       <c r="AJ216" s="1"/>
-      <c r="AK216" s="1"/>
-      <c r="AL216" s="1"/>
-      <c r="AM216" s="1"/>
-      <c r="AN216" s="1"/>
-      <c r="AO216" s="1"/>
-      <c r="AP216" s="1"/>
-      <c r="AQ216" s="1"/>
-    </row>
-    <row r="217" spans="1:43">
+    </row>
+    <row r="217" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -11429,15 +9778,8 @@
       <c r="AH217" s="1"/>
       <c r="AI217" s="1"/>
       <c r="AJ217" s="1"/>
-      <c r="AK217" s="1"/>
-      <c r="AL217" s="1"/>
-      <c r="AM217" s="1"/>
-      <c r="AN217" s="1"/>
-      <c r="AO217" s="1"/>
-      <c r="AP217" s="1"/>
-      <c r="AQ217" s="1"/>
-    </row>
-    <row r="218" spans="1:43">
+    </row>
+    <row r="218" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -11476,15 +9818,8 @@
       <c r="AH218" s="1"/>
       <c r="AI218" s="1"/>
       <c r="AJ218" s="1"/>
-      <c r="AK218" s="1"/>
-      <c r="AL218" s="1"/>
-      <c r="AM218" s="1"/>
-      <c r="AN218" s="1"/>
-      <c r="AO218" s="1"/>
-      <c r="AP218" s="1"/>
-      <c r="AQ218" s="1"/>
-    </row>
-    <row r="219" spans="1:43">
+    </row>
+    <row r="219" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -11523,15 +9858,8 @@
       <c r="AH219" s="1"/>
       <c r="AI219" s="1"/>
       <c r="AJ219" s="1"/>
-      <c r="AK219" s="1"/>
-      <c r="AL219" s="1"/>
-      <c r="AM219" s="1"/>
-      <c r="AN219" s="1"/>
-      <c r="AO219" s="1"/>
-      <c r="AP219" s="1"/>
-      <c r="AQ219" s="1"/>
-    </row>
-    <row r="220" spans="1:43">
+    </row>
+    <row r="220" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -11570,15 +9898,8 @@
       <c r="AH220" s="1"/>
       <c r="AI220" s="1"/>
       <c r="AJ220" s="1"/>
-      <c r="AK220" s="1"/>
-      <c r="AL220" s="1"/>
-      <c r="AM220" s="1"/>
-      <c r="AN220" s="1"/>
-      <c r="AO220" s="1"/>
-      <c r="AP220" s="1"/>
-      <c r="AQ220" s="1"/>
-    </row>
-    <row r="221" spans="1:43">
+    </row>
+    <row r="221" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -11617,15 +9938,8 @@
       <c r="AH221" s="1"/>
       <c r="AI221" s="1"/>
       <c r="AJ221" s="1"/>
-      <c r="AK221" s="1"/>
-      <c r="AL221" s="1"/>
-      <c r="AM221" s="1"/>
-      <c r="AN221" s="1"/>
-      <c r="AO221" s="1"/>
-      <c r="AP221" s="1"/>
-      <c r="AQ221" s="1"/>
-    </row>
-    <row r="222" spans="1:43">
+    </row>
+    <row r="222" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -11664,15 +9978,8 @@
       <c r="AH222" s="1"/>
       <c r="AI222" s="1"/>
       <c r="AJ222" s="1"/>
-      <c r="AK222" s="1"/>
-      <c r="AL222" s="1"/>
-      <c r="AM222" s="1"/>
-      <c r="AN222" s="1"/>
-      <c r="AO222" s="1"/>
-      <c r="AP222" s="1"/>
-      <c r="AQ222" s="1"/>
-    </row>
-    <row r="223" spans="1:43">
+    </row>
+    <row r="223" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -11711,15 +10018,8 @@
       <c r="AH223" s="1"/>
       <c r="AI223" s="1"/>
       <c r="AJ223" s="1"/>
-      <c r="AK223" s="1"/>
-      <c r="AL223" s="1"/>
-      <c r="AM223" s="1"/>
-      <c r="AN223" s="1"/>
-      <c r="AO223" s="1"/>
-      <c r="AP223" s="1"/>
-      <c r="AQ223" s="1"/>
-    </row>
-    <row r="224" spans="1:43">
+    </row>
+    <row r="224" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -11758,15 +10058,8 @@
       <c r="AH224" s="1"/>
       <c r="AI224" s="1"/>
       <c r="AJ224" s="1"/>
-      <c r="AK224" s="1"/>
-      <c r="AL224" s="1"/>
-      <c r="AM224" s="1"/>
-      <c r="AN224" s="1"/>
-      <c r="AO224" s="1"/>
-      <c r="AP224" s="1"/>
-      <c r="AQ224" s="1"/>
-    </row>
-    <row r="225" spans="1:43">
+    </row>
+    <row r="225" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -11805,15 +10098,8 @@
       <c r="AH225" s="1"/>
       <c r="AI225" s="1"/>
       <c r="AJ225" s="1"/>
-      <c r="AK225" s="1"/>
-      <c r="AL225" s="1"/>
-      <c r="AM225" s="1"/>
-      <c r="AN225" s="1"/>
-      <c r="AO225" s="1"/>
-      <c r="AP225" s="1"/>
-      <c r="AQ225" s="1"/>
-    </row>
-    <row r="226" spans="1:43">
+    </row>
+    <row r="226" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -11852,15 +10138,8 @@
       <c r="AH226" s="1"/>
       <c r="AI226" s="1"/>
       <c r="AJ226" s="1"/>
-      <c r="AK226" s="1"/>
-      <c r="AL226" s="1"/>
-      <c r="AM226" s="1"/>
-      <c r="AN226" s="1"/>
-      <c r="AO226" s="1"/>
-      <c r="AP226" s="1"/>
-      <c r="AQ226" s="1"/>
-    </row>
-    <row r="227" spans="1:43">
+    </row>
+    <row r="227" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -11899,15 +10178,8 @@
       <c r="AH227" s="1"/>
       <c r="AI227" s="1"/>
       <c r="AJ227" s="1"/>
-      <c r="AK227" s="1"/>
-      <c r="AL227" s="1"/>
-      <c r="AM227" s="1"/>
-      <c r="AN227" s="1"/>
-      <c r="AO227" s="1"/>
-      <c r="AP227" s="1"/>
-      <c r="AQ227" s="1"/>
-    </row>
-    <row r="228" spans="1:43">
+    </row>
+    <row r="228" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A228" s="4">
         <v>227</v>
       </c>
@@ -11946,15 +10218,8 @@
       <c r="AH228" s="1"/>
       <c r="AI228" s="1"/>
       <c r="AJ228" s="1"/>
-      <c r="AK228" s="1"/>
-      <c r="AL228" s="1"/>
-      <c r="AM228" s="1"/>
-      <c r="AN228" s="1"/>
-      <c r="AO228" s="1"/>
-      <c r="AP228" s="1"/>
-      <c r="AQ228" s="1"/>
-    </row>
-    <row r="229" spans="1:43">
+    </row>
+    <row r="229" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A229" s="4">
         <v>228</v>
       </c>
@@ -11993,15 +10258,8 @@
       <c r="AH229" s="1"/>
       <c r="AI229" s="1"/>
       <c r="AJ229" s="1"/>
-      <c r="AK229" s="1"/>
-      <c r="AL229" s="1"/>
-      <c r="AM229" s="1"/>
-      <c r="AN229" s="1"/>
-      <c r="AO229" s="1"/>
-      <c r="AP229" s="1"/>
-      <c r="AQ229" s="1"/>
-    </row>
-    <row r="230" spans="1:43">
+    </row>
+    <row r="230" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A230" s="4">
         <v>229</v>
       </c>
@@ -12040,15 +10298,8 @@
       <c r="AH230" s="1"/>
       <c r="AI230" s="1"/>
       <c r="AJ230" s="1"/>
-      <c r="AK230" s="1"/>
-      <c r="AL230" s="1"/>
-      <c r="AM230" s="1"/>
-      <c r="AN230" s="1"/>
-      <c r="AO230" s="1"/>
-      <c r="AP230" s="1"/>
-      <c r="AQ230" s="1"/>
-    </row>
-    <row r="231" spans="1:43">
+    </row>
+    <row r="231" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A231" s="4">
         <v>230</v>
       </c>
@@ -12087,15 +10338,8 @@
       <c r="AH231" s="1"/>
       <c r="AI231" s="1"/>
       <c r="AJ231" s="1"/>
-      <c r="AK231" s="1"/>
-      <c r="AL231" s="1"/>
-      <c r="AM231" s="1"/>
-      <c r="AN231" s="1"/>
-      <c r="AO231" s="1"/>
-      <c r="AP231" s="1"/>
-      <c r="AQ231" s="1"/>
-    </row>
-    <row r="232" spans="1:43">
+    </row>
+    <row r="232" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A232" s="4">
         <v>231</v>
       </c>
@@ -12134,15 +10378,8 @@
       <c r="AH232" s="1"/>
       <c r="AI232" s="1"/>
       <c r="AJ232" s="1"/>
-      <c r="AK232" s="1"/>
-      <c r="AL232" s="1"/>
-      <c r="AM232" s="1"/>
-      <c r="AN232" s="1"/>
-      <c r="AO232" s="1"/>
-      <c r="AP232" s="1"/>
-      <c r="AQ232" s="1"/>
-    </row>
-    <row r="233" spans="1:43">
+    </row>
+    <row r="233" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A233" s="4">
         <v>232</v>
       </c>
@@ -12181,15 +10418,8 @@
       <c r="AH233" s="1"/>
       <c r="AI233" s="1"/>
       <c r="AJ233" s="1"/>
-      <c r="AK233" s="1"/>
-      <c r="AL233" s="1"/>
-      <c r="AM233" s="1"/>
-      <c r="AN233" s="1"/>
-      <c r="AO233" s="1"/>
-      <c r="AP233" s="1"/>
-      <c r="AQ233" s="1"/>
-    </row>
-    <row r="234" spans="1:43">
+    </row>
+    <row r="234" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A234" s="4">
         <v>233</v>
       </c>
@@ -12228,15 +10458,8 @@
       <c r="AH234" s="1"/>
       <c r="AI234" s="1"/>
       <c r="AJ234" s="1"/>
-      <c r="AK234" s="1"/>
-      <c r="AL234" s="1"/>
-      <c r="AM234" s="1"/>
-      <c r="AN234" s="1"/>
-      <c r="AO234" s="1"/>
-      <c r="AP234" s="1"/>
-      <c r="AQ234" s="1"/>
-    </row>
-    <row r="235" spans="1:43">
+    </row>
+    <row r="235" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A235" s="4">
         <v>234</v>
       </c>
@@ -12275,15 +10498,8 @@
       <c r="AH235" s="1"/>
       <c r="AI235" s="1"/>
       <c r="AJ235" s="1"/>
-      <c r="AK235" s="1"/>
-      <c r="AL235" s="1"/>
-      <c r="AM235" s="1"/>
-      <c r="AN235" s="1"/>
-      <c r="AO235" s="1"/>
-      <c r="AP235" s="1"/>
-      <c r="AQ235" s="1"/>
-    </row>
-    <row r="236" spans="1:43">
+    </row>
+    <row r="236" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A236" s="4">
         <v>235</v>
       </c>
@@ -12322,15 +10538,8 @@
       <c r="AH236" s="1"/>
       <c r="AI236" s="1"/>
       <c r="AJ236" s="1"/>
-      <c r="AK236" s="1"/>
-      <c r="AL236" s="1"/>
-      <c r="AM236" s="1"/>
-      <c r="AN236" s="1"/>
-      <c r="AO236" s="1"/>
-      <c r="AP236" s="1"/>
-      <c r="AQ236" s="1"/>
-    </row>
-    <row r="237" spans="1:43">
+    </row>
+    <row r="237" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A237" s="4">
         <v>236</v>
       </c>
@@ -12369,15 +10578,8 @@
       <c r="AH237" s="1"/>
       <c r="AI237" s="1"/>
       <c r="AJ237" s="1"/>
-      <c r="AK237" s="1"/>
-      <c r="AL237" s="1"/>
-      <c r="AM237" s="1"/>
-      <c r="AN237" s="1"/>
-      <c r="AO237" s="1"/>
-      <c r="AP237" s="1"/>
-      <c r="AQ237" s="1"/>
-    </row>
-    <row r="238" spans="1:43">
+    </row>
+    <row r="238" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A238" s="4">
         <v>237</v>
       </c>
@@ -12416,15 +10618,8 @@
       <c r="AH238" s="1"/>
       <c r="AI238" s="1"/>
       <c r="AJ238" s="1"/>
-      <c r="AK238" s="1"/>
-      <c r="AL238" s="1"/>
-      <c r="AM238" s="1"/>
-      <c r="AN238" s="1"/>
-      <c r="AO238" s="1"/>
-      <c r="AP238" s="1"/>
-      <c r="AQ238" s="1"/>
-    </row>
-    <row r="239" spans="1:43">
+    </row>
+    <row r="239" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A239" s="4">
         <v>238</v>
       </c>
@@ -12463,15 +10658,8 @@
       <c r="AH239" s="1"/>
       <c r="AI239" s="1"/>
       <c r="AJ239" s="1"/>
-      <c r="AK239" s="1"/>
-      <c r="AL239" s="1"/>
-      <c r="AM239" s="1"/>
-      <c r="AN239" s="1"/>
-      <c r="AO239" s="1"/>
-      <c r="AP239" s="1"/>
-      <c r="AQ239" s="1"/>
-    </row>
-    <row r="240" spans="1:43">
+    </row>
+    <row r="240" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A240" s="4">
         <v>239</v>
       </c>
@@ -12510,15 +10698,8 @@
       <c r="AH240" s="1"/>
       <c r="AI240" s="1"/>
       <c r="AJ240" s="1"/>
-      <c r="AK240" s="1"/>
-      <c r="AL240" s="1"/>
-      <c r="AM240" s="1"/>
-      <c r="AN240" s="1"/>
-      <c r="AO240" s="1"/>
-      <c r="AP240" s="1"/>
-      <c r="AQ240" s="1"/>
-    </row>
-    <row r="241" spans="1:43">
+    </row>
+    <row r="241" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A241" s="4">
         <v>240</v>
       </c>
@@ -12557,15 +10738,8 @@
       <c r="AH241" s="1"/>
       <c r="AI241" s="1"/>
       <c r="AJ241" s="1"/>
-      <c r="AK241" s="1"/>
-      <c r="AL241" s="1"/>
-      <c r="AM241" s="1"/>
-      <c r="AN241" s="1"/>
-      <c r="AO241" s="1"/>
-      <c r="AP241" s="1"/>
-      <c r="AQ241" s="1"/>
-    </row>
-    <row r="242" spans="1:43">
+    </row>
+    <row r="242" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A242" s="4">
         <v>241</v>
       </c>
@@ -12604,15 +10778,8 @@
       <c r="AH242" s="1"/>
       <c r="AI242" s="1"/>
       <c r="AJ242" s="1"/>
-      <c r="AK242" s="1"/>
-      <c r="AL242" s="1"/>
-      <c r="AM242" s="1"/>
-      <c r="AN242" s="1"/>
-      <c r="AO242" s="1"/>
-      <c r="AP242" s="1"/>
-      <c r="AQ242" s="1"/>
-    </row>
-    <row r="243" spans="1:43">
+    </row>
+    <row r="243" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A243" s="4">
         <v>242</v>
       </c>
@@ -12651,15 +10818,8 @@
       <c r="AH243" s="1"/>
       <c r="AI243" s="1"/>
       <c r="AJ243" s="1"/>
-      <c r="AK243" s="1"/>
-      <c r="AL243" s="1"/>
-      <c r="AM243" s="1"/>
-      <c r="AN243" s="1"/>
-      <c r="AO243" s="1"/>
-      <c r="AP243" s="1"/>
-      <c r="AQ243" s="1"/>
-    </row>
-    <row r="244" spans="1:43">
+    </row>
+    <row r="244" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A244" s="4">
         <v>243</v>
       </c>
@@ -12698,15 +10858,8 @@
       <c r="AH244" s="1"/>
       <c r="AI244" s="1"/>
       <c r="AJ244" s="1"/>
-      <c r="AK244" s="1"/>
-      <c r="AL244" s="1"/>
-      <c r="AM244" s="1"/>
-      <c r="AN244" s="1"/>
-      <c r="AO244" s="1"/>
-      <c r="AP244" s="1"/>
-      <c r="AQ244" s="1"/>
-    </row>
-    <row r="245" spans="1:43">
+    </row>
+    <row r="245" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A245" s="4">
         <v>244</v>
       </c>
@@ -12745,15 +10898,8 @@
       <c r="AH245" s="1"/>
       <c r="AI245" s="1"/>
       <c r="AJ245" s="1"/>
-      <c r="AK245" s="1"/>
-      <c r="AL245" s="1"/>
-      <c r="AM245" s="1"/>
-      <c r="AN245" s="1"/>
-      <c r="AO245" s="1"/>
-      <c r="AP245" s="1"/>
-      <c r="AQ245" s="1"/>
-    </row>
-    <row r="246" spans="1:43">
+    </row>
+    <row r="246" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A246" s="4">
         <v>245</v>
       </c>
@@ -12792,15 +10938,8 @@
       <c r="AH246" s="1"/>
       <c r="AI246" s="1"/>
       <c r="AJ246" s="1"/>
-      <c r="AK246" s="1"/>
-      <c r="AL246" s="1"/>
-      <c r="AM246" s="1"/>
-      <c r="AN246" s="1"/>
-      <c r="AO246" s="1"/>
-      <c r="AP246" s="1"/>
-      <c r="AQ246" s="1"/>
-    </row>
-    <row r="247" spans="1:43">
+    </row>
+    <row r="247" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A247" s="4">
         <v>246</v>
       </c>
@@ -12839,15 +10978,8 @@
       <c r="AH247" s="1"/>
       <c r="AI247" s="1"/>
       <c r="AJ247" s="1"/>
-      <c r="AK247" s="1"/>
-      <c r="AL247" s="1"/>
-      <c r="AM247" s="1"/>
-      <c r="AN247" s="1"/>
-      <c r="AO247" s="1"/>
-      <c r="AP247" s="1"/>
-      <c r="AQ247" s="1"/>
-    </row>
-    <row r="248" spans="1:43">
+    </row>
+    <row r="248" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A248" s="4">
         <v>247</v>
       </c>
@@ -12886,15 +11018,8 @@
       <c r="AH248" s="1"/>
       <c r="AI248" s="1"/>
       <c r="AJ248" s="1"/>
-      <c r="AK248" s="1"/>
-      <c r="AL248" s="1"/>
-      <c r="AM248" s="1"/>
-      <c r="AN248" s="1"/>
-      <c r="AO248" s="1"/>
-      <c r="AP248" s="1"/>
-      <c r="AQ248" s="1"/>
-    </row>
-    <row r="249" spans="1:43">
+    </row>
+    <row r="249" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A249" s="4">
         <v>248</v>
       </c>
@@ -12933,15 +11058,8 @@
       <c r="AH249" s="1"/>
       <c r="AI249" s="1"/>
       <c r="AJ249" s="1"/>
-      <c r="AK249" s="1"/>
-      <c r="AL249" s="1"/>
-      <c r="AM249" s="1"/>
-      <c r="AN249" s="1"/>
-      <c r="AO249" s="1"/>
-      <c r="AP249" s="1"/>
-      <c r="AQ249" s="1"/>
-    </row>
-    <row r="250" spans="1:43">
+    </row>
+    <row r="250" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A250" s="4">
         <v>249</v>
       </c>
@@ -12980,15 +11098,8 @@
       <c r="AH250" s="1"/>
       <c r="AI250" s="1"/>
       <c r="AJ250" s="1"/>
-      <c r="AK250" s="1"/>
-      <c r="AL250" s="1"/>
-      <c r="AM250" s="1"/>
-      <c r="AN250" s="1"/>
-      <c r="AO250" s="1"/>
-      <c r="AP250" s="1"/>
-      <c r="AQ250" s="1"/>
-    </row>
-    <row r="251" spans="1:43">
+    </row>
+    <row r="251" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A251" s="4">
         <v>250</v>
       </c>
@@ -13027,15 +11138,8 @@
       <c r="AH251" s="1"/>
       <c r="AI251" s="1"/>
       <c r="AJ251" s="1"/>
-      <c r="AK251" s="1"/>
-      <c r="AL251" s="1"/>
-      <c r="AM251" s="1"/>
-      <c r="AN251" s="1"/>
-      <c r="AO251" s="1"/>
-      <c r="AP251" s="1"/>
-      <c r="AQ251" s="1"/>
-    </row>
-    <row r="252" spans="1:43">
+    </row>
+    <row r="252" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A252" s="4">
         <v>251</v>
       </c>
@@ -13074,15 +11178,8 @@
       <c r="AH252" s="1"/>
       <c r="AI252" s="1"/>
       <c r="AJ252" s="1"/>
-      <c r="AK252" s="1"/>
-      <c r="AL252" s="1"/>
-      <c r="AM252" s="1"/>
-      <c r="AN252" s="1"/>
-      <c r="AO252" s="1"/>
-      <c r="AP252" s="1"/>
-      <c r="AQ252" s="1"/>
-    </row>
-    <row r="253" spans="1:43">
+    </row>
+    <row r="253" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A253" s="4">
         <v>252</v>
       </c>
@@ -13121,15 +11218,8 @@
       <c r="AH253" s="1"/>
       <c r="AI253" s="1"/>
       <c r="AJ253" s="1"/>
-      <c r="AK253" s="1"/>
-      <c r="AL253" s="1"/>
-      <c r="AM253" s="1"/>
-      <c r="AN253" s="1"/>
-      <c r="AO253" s="1"/>
-      <c r="AP253" s="1"/>
-      <c r="AQ253" s="1"/>
-    </row>
-    <row r="254" spans="1:43">
+    </row>
+    <row r="254" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A254" s="4">
         <v>253</v>
       </c>
@@ -13168,15 +11258,8 @@
       <c r="AH254" s="1"/>
       <c r="AI254" s="1"/>
       <c r="AJ254" s="1"/>
-      <c r="AK254" s="1"/>
-      <c r="AL254" s="1"/>
-      <c r="AM254" s="1"/>
-      <c r="AN254" s="1"/>
-      <c r="AO254" s="1"/>
-      <c r="AP254" s="1"/>
-      <c r="AQ254" s="1"/>
-    </row>
-    <row r="255" spans="1:43">
+    </row>
+    <row r="255" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A255" s="4">
         <v>254</v>
       </c>
@@ -13215,15 +11298,8 @@
       <c r="AH255" s="1"/>
       <c r="AI255" s="1"/>
       <c r="AJ255" s="1"/>
-      <c r="AK255" s="1"/>
-      <c r="AL255" s="1"/>
-      <c r="AM255" s="1"/>
-      <c r="AN255" s="1"/>
-      <c r="AO255" s="1"/>
-      <c r="AP255" s="1"/>
-      <c r="AQ255" s="1"/>
-    </row>
-    <row r="256" spans="1:43">
+    </row>
+    <row r="256" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A256" s="4">
         <v>255</v>
       </c>
@@ -13262,15 +11338,8 @@
       <c r="AH256" s="1"/>
       <c r="AI256" s="1"/>
       <c r="AJ256" s="1"/>
-      <c r="AK256" s="1"/>
-      <c r="AL256" s="1"/>
-      <c r="AM256" s="1"/>
-      <c r="AN256" s="1"/>
-      <c r="AO256" s="1"/>
-      <c r="AP256" s="1"/>
-      <c r="AQ256" s="1"/>
-    </row>
-    <row r="257" spans="1:43">
+    </row>
+    <row r="257" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A257" s="4">
         <v>256</v>
       </c>
@@ -13309,15 +11378,8 @@
       <c r="AH257" s="1"/>
       <c r="AI257" s="1"/>
       <c r="AJ257" s="1"/>
-      <c r="AK257" s="1"/>
-      <c r="AL257" s="1"/>
-      <c r="AM257" s="1"/>
-      <c r="AN257" s="1"/>
-      <c r="AO257" s="1"/>
-      <c r="AP257" s="1"/>
-      <c r="AQ257" s="1"/>
-    </row>
-    <row r="258" spans="1:43">
+    </row>
+    <row r="258" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A258" s="4">
         <v>257</v>
       </c>
@@ -13356,15 +11418,8 @@
       <c r="AH258" s="1"/>
       <c r="AI258" s="1"/>
       <c r="AJ258" s="1"/>
-      <c r="AK258" s="1"/>
-      <c r="AL258" s="1"/>
-      <c r="AM258" s="1"/>
-      <c r="AN258" s="1"/>
-      <c r="AO258" s="1"/>
-      <c r="AP258" s="1"/>
-      <c r="AQ258" s="1"/>
-    </row>
-    <row r="259" spans="1:43">
+    </row>
+    <row r="259" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A259" s="4">
         <v>258</v>
       </c>
@@ -13403,15 +11458,8 @@
       <c r="AH259" s="1"/>
       <c r="AI259" s="1"/>
       <c r="AJ259" s="1"/>
-      <c r="AK259" s="1"/>
-      <c r="AL259" s="1"/>
-      <c r="AM259" s="1"/>
-      <c r="AN259" s="1"/>
-      <c r="AO259" s="1"/>
-      <c r="AP259" s="1"/>
-      <c r="AQ259" s="1"/>
-    </row>
-    <row r="260" spans="1:43">
+    </row>
+    <row r="260" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A260" s="4">
         <v>259</v>
       </c>
@@ -13450,15 +11498,8 @@
       <c r="AH260" s="1"/>
       <c r="AI260" s="1"/>
       <c r="AJ260" s="1"/>
-      <c r="AK260" s="1"/>
-      <c r="AL260" s="1"/>
-      <c r="AM260" s="1"/>
-      <c r="AN260" s="1"/>
-      <c r="AO260" s="1"/>
-      <c r="AP260" s="1"/>
-      <c r="AQ260" s="1"/>
-    </row>
-    <row r="261" spans="1:43">
+    </row>
+    <row r="261" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A261" s="4">
         <v>260</v>
       </c>
@@ -13497,15 +11538,8 @@
       <c r="AH261" s="1"/>
       <c r="AI261" s="1"/>
       <c r="AJ261" s="1"/>
-      <c r="AK261" s="1"/>
-      <c r="AL261" s="1"/>
-      <c r="AM261" s="1"/>
-      <c r="AN261" s="1"/>
-      <c r="AO261" s="1"/>
-      <c r="AP261" s="1"/>
-      <c r="AQ261" s="1"/>
-    </row>
-    <row r="262" spans="1:43">
+    </row>
+    <row r="262" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A262" s="4">
         <v>261</v>
       </c>
@@ -13544,15 +11578,8 @@
       <c r="AH262" s="1"/>
       <c r="AI262" s="1"/>
       <c r="AJ262" s="1"/>
-      <c r="AK262" s="1"/>
-      <c r="AL262" s="1"/>
-      <c r="AM262" s="1"/>
-      <c r="AN262" s="1"/>
-      <c r="AO262" s="1"/>
-      <c r="AP262" s="1"/>
-      <c r="AQ262" s="1"/>
-    </row>
-    <row r="263" spans="1:43">
+    </row>
+    <row r="263" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A263" s="4">
         <v>262</v>
       </c>
@@ -13591,15 +11618,8 @@
       <c r="AH263" s="1"/>
       <c r="AI263" s="1"/>
       <c r="AJ263" s="1"/>
-      <c r="AK263" s="1"/>
-      <c r="AL263" s="1"/>
-      <c r="AM263" s="1"/>
-      <c r="AN263" s="1"/>
-      <c r="AO263" s="1"/>
-      <c r="AP263" s="1"/>
-      <c r="AQ263" s="1"/>
-    </row>
-    <row r="264" spans="1:43">
+    </row>
+    <row r="264" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A264" s="4">
         <v>263</v>
       </c>
@@ -13638,15 +11658,8 @@
       <c r="AH264" s="1"/>
       <c r="AI264" s="1"/>
       <c r="AJ264" s="1"/>
-      <c r="AK264" s="1"/>
-      <c r="AL264" s="1"/>
-      <c r="AM264" s="1"/>
-      <c r="AN264" s="1"/>
-      <c r="AO264" s="1"/>
-      <c r="AP264" s="1"/>
-      <c r="AQ264" s="1"/>
-    </row>
-    <row r="265" spans="1:43">
+    </row>
+    <row r="265" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A265" s="4">
         <v>264</v>
       </c>
@@ -13685,15 +11698,8 @@
       <c r="AH265" s="1"/>
       <c r="AI265" s="1"/>
       <c r="AJ265" s="1"/>
-      <c r="AK265" s="1"/>
-      <c r="AL265" s="1"/>
-      <c r="AM265" s="1"/>
-      <c r="AN265" s="1"/>
-      <c r="AO265" s="1"/>
-      <c r="AP265" s="1"/>
-      <c r="AQ265" s="1"/>
-    </row>
-    <row r="266" spans="1:43">
+    </row>
+    <row r="266" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A266" s="4">
         <v>265</v>
       </c>
@@ -13732,15 +11738,8 @@
       <c r="AH266" s="1"/>
       <c r="AI266" s="1"/>
       <c r="AJ266" s="1"/>
-      <c r="AK266" s="1"/>
-      <c r="AL266" s="1"/>
-      <c r="AM266" s="1"/>
-      <c r="AN266" s="1"/>
-      <c r="AO266" s="1"/>
-      <c r="AP266" s="1"/>
-      <c r="AQ266" s="1"/>
-    </row>
-    <row r="267" spans="1:43">
+    </row>
+    <row r="267" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A267" s="4">
         <v>266</v>
       </c>
@@ -13779,15 +11778,8 @@
       <c r="AH267" s="1"/>
       <c r="AI267" s="1"/>
       <c r="AJ267" s="1"/>
-      <c r="AK267" s="1"/>
-      <c r="AL267" s="1"/>
-      <c r="AM267" s="1"/>
-      <c r="AN267" s="1"/>
-      <c r="AO267" s="1"/>
-      <c r="AP267" s="1"/>
-      <c r="AQ267" s="1"/>
-    </row>
-    <row r="268" spans="1:43">
+    </row>
+    <row r="268" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A268" s="4">
         <v>267</v>
       </c>
@@ -13826,15 +11818,8 @@
       <c r="AH268" s="1"/>
       <c r="AI268" s="1"/>
       <c r="AJ268" s="1"/>
-      <c r="AK268" s="1"/>
-      <c r="AL268" s="1"/>
-      <c r="AM268" s="1"/>
-      <c r="AN268" s="1"/>
-      <c r="AO268" s="1"/>
-      <c r="AP268" s="1"/>
-      <c r="AQ268" s="1"/>
-    </row>
-    <row r="269" spans="1:43">
+    </row>
+    <row r="269" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A269" s="4">
         <v>268</v>
       </c>
@@ -13873,15 +11858,8 @@
       <c r="AH269" s="1"/>
       <c r="AI269" s="1"/>
       <c r="AJ269" s="1"/>
-      <c r="AK269" s="1"/>
-      <c r="AL269" s="1"/>
-      <c r="AM269" s="1"/>
-      <c r="AN269" s="1"/>
-      <c r="AO269" s="1"/>
-      <c r="AP269" s="1"/>
-      <c r="AQ269" s="1"/>
-    </row>
-    <row r="270" spans="1:43">
+    </row>
+    <row r="270" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A270" s="4">
         <v>269</v>
       </c>
@@ -13920,15 +11898,8 @@
       <c r="AH270" s="1"/>
       <c r="AI270" s="1"/>
       <c r="AJ270" s="1"/>
-      <c r="AK270" s="1"/>
-      <c r="AL270" s="1"/>
-      <c r="AM270" s="1"/>
-      <c r="AN270" s="1"/>
-      <c r="AO270" s="1"/>
-      <c r="AP270" s="1"/>
-      <c r="AQ270" s="1"/>
-    </row>
-    <row r="271" spans="1:43">
+    </row>
+    <row r="271" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A271" s="4">
         <v>270</v>
       </c>
@@ -13967,15 +11938,8 @@
       <c r="AH271" s="1"/>
       <c r="AI271" s="1"/>
       <c r="AJ271" s="1"/>
-      <c r="AK271" s="1"/>
-      <c r="AL271" s="1"/>
-      <c r="AM271" s="1"/>
-      <c r="AN271" s="1"/>
-      <c r="AO271" s="1"/>
-      <c r="AP271" s="1"/>
-      <c r="AQ271" s="1"/>
-    </row>
-    <row r="272" spans="1:43">
+    </row>
+    <row r="272" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A272" s="4">
         <v>271</v>
       </c>
@@ -14014,15 +11978,8 @@
       <c r="AH272" s="1"/>
       <c r="AI272" s="1"/>
       <c r="AJ272" s="1"/>
-      <c r="AK272" s="1"/>
-      <c r="AL272" s="1"/>
-      <c r="AM272" s="1"/>
-      <c r="AN272" s="1"/>
-      <c r="AO272" s="1"/>
-      <c r="AP272" s="1"/>
-      <c r="AQ272" s="1"/>
-    </row>
-    <row r="273" spans="1:43">
+    </row>
+    <row r="273" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A273" s="4">
         <v>272</v>
       </c>
@@ -14061,15 +12018,8 @@
       <c r="AH273" s="1"/>
       <c r="AI273" s="1"/>
       <c r="AJ273" s="1"/>
-      <c r="AK273" s="1"/>
-      <c r="AL273" s="1"/>
-      <c r="AM273" s="1"/>
-      <c r="AN273" s="1"/>
-      <c r="AO273" s="1"/>
-      <c r="AP273" s="1"/>
-      <c r="AQ273" s="1"/>
-    </row>
-    <row r="274" spans="1:43">
+    </row>
+    <row r="274" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A274" s="4">
         <v>273</v>
       </c>
@@ -14108,15 +12058,8 @@
       <c r="AH274" s="1"/>
       <c r="AI274" s="1"/>
       <c r="AJ274" s="1"/>
-      <c r="AK274" s="1"/>
-      <c r="AL274" s="1"/>
-      <c r="AM274" s="1"/>
-      <c r="AN274" s="1"/>
-      <c r="AO274" s="1"/>
-      <c r="AP274" s="1"/>
-      <c r="AQ274" s="1"/>
-    </row>
-    <row r="275" spans="1:43">
+    </row>
+    <row r="275" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A275" s="4">
         <v>274</v>
       </c>
@@ -14155,15 +12098,8 @@
       <c r="AH275" s="1"/>
       <c r="AI275" s="1"/>
       <c r="AJ275" s="1"/>
-      <c r="AK275" s="1"/>
-      <c r="AL275" s="1"/>
-      <c r="AM275" s="1"/>
-      <c r="AN275" s="1"/>
-      <c r="AO275" s="1"/>
-      <c r="AP275" s="1"/>
-      <c r="AQ275" s="1"/>
-    </row>
-    <row r="276" spans="1:43">
+    </row>
+    <row r="276" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A276" s="4">
         <v>275</v>
       </c>
@@ -14202,15 +12138,8 @@
       <c r="AH276" s="1"/>
       <c r="AI276" s="1"/>
       <c r="AJ276" s="1"/>
-      <c r="AK276" s="1"/>
-      <c r="AL276" s="1"/>
-      <c r="AM276" s="1"/>
-      <c r="AN276" s="1"/>
-      <c r="AO276" s="1"/>
-      <c r="AP276" s="1"/>
-      <c r="AQ276" s="1"/>
-    </row>
-    <row r="277" spans="1:43">
+    </row>
+    <row r="277" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A277" s="4">
         <v>276</v>
       </c>
@@ -14249,15 +12178,8 @@
       <c r="AH277" s="1"/>
       <c r="AI277" s="1"/>
       <c r="AJ277" s="1"/>
-      <c r="AK277" s="1"/>
-      <c r="AL277" s="1"/>
-      <c r="AM277" s="1"/>
-      <c r="AN277" s="1"/>
-      <c r="AO277" s="1"/>
-      <c r="AP277" s="1"/>
-      <c r="AQ277" s="1"/>
-    </row>
-    <row r="278" spans="1:43">
+    </row>
+    <row r="278" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A278" s="4">
         <v>277</v>
       </c>
@@ -14296,15 +12218,8 @@
       <c r="AH278" s="1"/>
       <c r="AI278" s="1"/>
       <c r="AJ278" s="1"/>
-      <c r="AK278" s="1"/>
-      <c r="AL278" s="1"/>
-      <c r="AM278" s="1"/>
-      <c r="AN278" s="1"/>
-      <c r="AO278" s="1"/>
-      <c r="AP278" s="1"/>
-      <c r="AQ278" s="1"/>
-    </row>
-    <row r="279" spans="1:43">
+    </row>
+    <row r="279" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A279" s="4">
         <v>278</v>
       </c>
@@ -14343,15 +12258,8 @@
       <c r="AH279" s="1"/>
       <c r="AI279" s="1"/>
       <c r="AJ279" s="1"/>
-      <c r="AK279" s="1"/>
-      <c r="AL279" s="1"/>
-      <c r="AM279" s="1"/>
-      <c r="AN279" s="1"/>
-      <c r="AO279" s="1"/>
-      <c r="AP279" s="1"/>
-      <c r="AQ279" s="1"/>
-    </row>
-    <row r="280" spans="1:43">
+    </row>
+    <row r="280" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A280" s="4">
         <v>279</v>
       </c>
@@ -14390,15 +12298,8 @@
       <c r="AH280" s="1"/>
       <c r="AI280" s="1"/>
       <c r="AJ280" s="1"/>
-      <c r="AK280" s="1"/>
-      <c r="AL280" s="1"/>
-      <c r="AM280" s="1"/>
-      <c r="AN280" s="1"/>
-      <c r="AO280" s="1"/>
-      <c r="AP280" s="1"/>
-      <c r="AQ280" s="1"/>
-    </row>
-    <row r="281" spans="1:43">
+    </row>
+    <row r="281" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A281" s="4">
         <v>280</v>
       </c>
@@ -14437,15 +12338,8 @@
       <c r="AH281" s="1"/>
       <c r="AI281" s="1"/>
       <c r="AJ281" s="1"/>
-      <c r="AK281" s="1"/>
-      <c r="AL281" s="1"/>
-      <c r="AM281" s="1"/>
-      <c r="AN281" s="1"/>
-      <c r="AO281" s="1"/>
-      <c r="AP281" s="1"/>
-      <c r="AQ281" s="1"/>
-    </row>
-    <row r="282" spans="1:43">
+    </row>
+    <row r="282" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A282" s="4">
         <v>281</v>
       </c>
@@ -14484,15 +12378,8 @@
       <c r="AH282" s="1"/>
       <c r="AI282" s="1"/>
       <c r="AJ282" s="1"/>
-      <c r="AK282" s="1"/>
-      <c r="AL282" s="1"/>
-      <c r="AM282" s="1"/>
-      <c r="AN282" s="1"/>
-      <c r="AO282" s="1"/>
-      <c r="AP282" s="1"/>
-      <c r="AQ282" s="1"/>
-    </row>
-    <row r="283" spans="1:43">
+    </row>
+    <row r="283" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A283" s="4">
         <v>282</v>
       </c>
@@ -14531,15 +12418,8 @@
       <c r="AH283" s="1"/>
       <c r="AI283" s="1"/>
       <c r="AJ283" s="1"/>
-      <c r="AK283" s="1"/>
-      <c r="AL283" s="1"/>
-      <c r="AM283" s="1"/>
-      <c r="AN283" s="1"/>
-      <c r="AO283" s="1"/>
-      <c r="AP283" s="1"/>
-      <c r="AQ283" s="1"/>
-    </row>
-    <row r="284" spans="1:43">
+    </row>
+    <row r="284" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A284" s="4">
         <v>283</v>
       </c>
@@ -14578,15 +12458,8 @@
       <c r="AH284" s="1"/>
       <c r="AI284" s="1"/>
       <c r="AJ284" s="1"/>
-      <c r="AK284" s="1"/>
-      <c r="AL284" s="1"/>
-      <c r="AM284" s="1"/>
-      <c r="AN284" s="1"/>
-      <c r="AO284" s="1"/>
-      <c r="AP284" s="1"/>
-      <c r="AQ284" s="1"/>
-    </row>
-    <row r="285" spans="1:43">
+    </row>
+    <row r="285" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A285" s="4">
         <v>284</v>
       </c>
@@ -14625,15 +12498,8 @@
       <c r="AH285" s="1"/>
       <c r="AI285" s="1"/>
       <c r="AJ285" s="1"/>
-      <c r="AK285" s="1"/>
-      <c r="AL285" s="1"/>
-      <c r="AM285" s="1"/>
-      <c r="AN285" s="1"/>
-      <c r="AO285" s="1"/>
-      <c r="AP285" s="1"/>
-      <c r="AQ285" s="1"/>
-    </row>
-    <row r="286" spans="1:43">
+    </row>
+    <row r="286" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A286" s="4">
         <v>285</v>
       </c>
@@ -14672,15 +12538,8 @@
       <c r="AH286" s="1"/>
       <c r="AI286" s="1"/>
       <c r="AJ286" s="1"/>
-      <c r="AK286" s="1"/>
-      <c r="AL286" s="1"/>
-      <c r="AM286" s="1"/>
-      <c r="AN286" s="1"/>
-      <c r="AO286" s="1"/>
-      <c r="AP286" s="1"/>
-      <c r="AQ286" s="1"/>
-    </row>
-    <row r="287" spans="1:43">
+    </row>
+    <row r="287" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A287" s="4">
         <v>286</v>
       </c>
@@ -14719,15 +12578,8 @@
       <c r="AH287" s="1"/>
       <c r="AI287" s="1"/>
       <c r="AJ287" s="1"/>
-      <c r="AK287" s="1"/>
-      <c r="AL287" s="1"/>
-      <c r="AM287" s="1"/>
-      <c r="AN287" s="1"/>
-      <c r="AO287" s="1"/>
-      <c r="AP287" s="1"/>
-      <c r="AQ287" s="1"/>
-    </row>
-    <row r="288" spans="1:43">
+    </row>
+    <row r="288" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A288" s="4">
         <v>287</v>
       </c>
@@ -14766,15 +12618,8 @@
       <c r="AH288" s="1"/>
       <c r="AI288" s="1"/>
       <c r="AJ288" s="1"/>
-      <c r="AK288" s="1"/>
-      <c r="AL288" s="1"/>
-      <c r="AM288" s="1"/>
-      <c r="AN288" s="1"/>
-      <c r="AO288" s="1"/>
-      <c r="AP288" s="1"/>
-      <c r="AQ288" s="1"/>
-    </row>
-    <row r="289" spans="1:43">
+    </row>
+    <row r="289" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A289" s="4">
         <v>288</v>
       </c>
@@ -14813,15 +12658,8 @@
       <c r="AH289" s="1"/>
       <c r="AI289" s="1"/>
       <c r="AJ289" s="1"/>
-      <c r="AK289" s="1"/>
-      <c r="AL289" s="1"/>
-      <c r="AM289" s="1"/>
-      <c r="AN289" s="1"/>
-      <c r="AO289" s="1"/>
-      <c r="AP289" s="1"/>
-      <c r="AQ289" s="1"/>
-    </row>
-    <row r="290" spans="1:43">
+    </row>
+    <row r="290" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A290" s="4">
         <v>289</v>
       </c>
@@ -14860,15 +12698,8 @@
       <c r="AH290" s="1"/>
       <c r="AI290" s="1"/>
       <c r="AJ290" s="1"/>
-      <c r="AK290" s="1"/>
-      <c r="AL290" s="1"/>
-      <c r="AM290" s="1"/>
-      <c r="AN290" s="1"/>
-      <c r="AO290" s="1"/>
-      <c r="AP290" s="1"/>
-      <c r="AQ290" s="1"/>
-    </row>
-    <row r="291" spans="1:43">
+    </row>
+    <row r="291" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A291" s="4">
         <v>290</v>
       </c>
@@ -14907,15 +12738,8 @@
       <c r="AH291" s="1"/>
       <c r="AI291" s="1"/>
       <c r="AJ291" s="1"/>
-      <c r="AK291" s="1"/>
-      <c r="AL291" s="1"/>
-      <c r="AM291" s="1"/>
-      <c r="AN291" s="1"/>
-      <c r="AO291" s="1"/>
-      <c r="AP291" s="1"/>
-      <c r="AQ291" s="1"/>
-    </row>
-    <row r="292" spans="1:43">
+    </row>
+    <row r="292" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A292" s="4">
         <v>291</v>
       </c>
@@ -14954,15 +12778,8 @@
       <c r="AH292" s="1"/>
       <c r="AI292" s="1"/>
       <c r="AJ292" s="1"/>
-      <c r="AK292" s="1"/>
-      <c r="AL292" s="1"/>
-      <c r="AM292" s="1"/>
-      <c r="AN292" s="1"/>
-      <c r="AO292" s="1"/>
-      <c r="AP292" s="1"/>
-      <c r="AQ292" s="1"/>
-    </row>
-    <row r="293" spans="1:43">
+    </row>
+    <row r="293" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A293" s="4">
         <v>292</v>
       </c>
@@ -15001,15 +12818,8 @@
       <c r="AH293" s="1"/>
       <c r="AI293" s="1"/>
       <c r="AJ293" s="1"/>
-      <c r="AK293" s="1"/>
-      <c r="AL293" s="1"/>
-      <c r="AM293" s="1"/>
-      <c r="AN293" s="1"/>
-      <c r="AO293" s="1"/>
-      <c r="AP293" s="1"/>
-      <c r="AQ293" s="1"/>
-    </row>
-    <row r="294" spans="1:43">
+    </row>
+    <row r="294" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A294" s="4">
         <v>293</v>
       </c>
@@ -15048,15 +12858,8 @@
       <c r="AH294" s="1"/>
       <c r="AI294" s="1"/>
       <c r="AJ294" s="1"/>
-      <c r="AK294" s="1"/>
-      <c r="AL294" s="1"/>
-      <c r="AM294" s="1"/>
-      <c r="AN294" s="1"/>
-      <c r="AO294" s="1"/>
-      <c r="AP294" s="1"/>
-      <c r="AQ294" s="1"/>
-    </row>
-    <row r="295" spans="1:43">
+    </row>
+    <row r="295" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A295" s="4">
         <v>294</v>
       </c>
@@ -15095,15 +12898,8 @@
       <c r="AH295" s="1"/>
       <c r="AI295" s="1"/>
       <c r="AJ295" s="1"/>
-      <c r="AK295" s="1"/>
-      <c r="AL295" s="1"/>
-      <c r="AM295" s="1"/>
-      <c r="AN295" s="1"/>
-      <c r="AO295" s="1"/>
-      <c r="AP295" s="1"/>
-      <c r="AQ295" s="1"/>
-    </row>
-    <row r="296" spans="1:43">
+    </row>
+    <row r="296" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A296" s="4">
         <v>295</v>
       </c>
@@ -15142,15 +12938,8 @@
       <c r="AH296" s="1"/>
       <c r="AI296" s="1"/>
       <c r="AJ296" s="1"/>
-      <c r="AK296" s="1"/>
-      <c r="AL296" s="1"/>
-      <c r="AM296" s="1"/>
-      <c r="AN296" s="1"/>
-      <c r="AO296" s="1"/>
-      <c r="AP296" s="1"/>
-      <c r="AQ296" s="1"/>
-    </row>
-    <row r="297" spans="1:43">
+    </row>
+    <row r="297" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A297" s="4">
         <v>296</v>
       </c>
@@ -15189,15 +12978,8 @@
       <c r="AH297" s="1"/>
       <c r="AI297" s="1"/>
       <c r="AJ297" s="1"/>
-      <c r="AK297" s="1"/>
-      <c r="AL297" s="1"/>
-      <c r="AM297" s="1"/>
-      <c r="AN297" s="1"/>
-      <c r="AO297" s="1"/>
-      <c r="AP297" s="1"/>
-      <c r="AQ297" s="1"/>
-    </row>
-    <row r="298" spans="1:43">
+    </row>
+    <row r="298" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A298" s="4">
         <v>297</v>
       </c>
@@ -15236,15 +13018,8 @@
       <c r="AH298" s="1"/>
       <c r="AI298" s="1"/>
       <c r="AJ298" s="1"/>
-      <c r="AK298" s="1"/>
-      <c r="AL298" s="1"/>
-      <c r="AM298" s="1"/>
-      <c r="AN298" s="1"/>
-      <c r="AO298" s="1"/>
-      <c r="AP298" s="1"/>
-      <c r="AQ298" s="1"/>
-    </row>
-    <row r="299" spans="1:43">
+    </row>
+    <row r="299" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A299" s="4">
         <v>298</v>
       </c>
@@ -15283,15 +13058,8 @@
       <c r="AH299" s="1"/>
       <c r="AI299" s="1"/>
       <c r="AJ299" s="1"/>
-      <c r="AK299" s="1"/>
-      <c r="AL299" s="1"/>
-      <c r="AM299" s="1"/>
-      <c r="AN299" s="1"/>
-      <c r="AO299" s="1"/>
-      <c r="AP299" s="1"/>
-      <c r="AQ299" s="1"/>
-    </row>
-    <row r="300" spans="1:43">
+    </row>
+    <row r="300" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A300" s="4">
         <v>299</v>
       </c>
@@ -15330,15 +13098,8 @@
       <c r="AH300" s="1"/>
       <c r="AI300" s="1"/>
       <c r="AJ300" s="1"/>
-      <c r="AK300" s="1"/>
-      <c r="AL300" s="1"/>
-      <c r="AM300" s="1"/>
-      <c r="AN300" s="1"/>
-      <c r="AO300" s="1"/>
-      <c r="AP300" s="1"/>
-      <c r="AQ300" s="1"/>
-    </row>
-    <row r="301" spans="1:43">
+    </row>
+    <row r="301" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A301" s="4">
         <v>300</v>
       </c>
@@ -15377,21 +13138,14 @@
       <c r="AH301" s="1"/>
       <c r="AI301" s="1"/>
       <c r="AJ301" s="1"/>
-      <c r="AK301" s="1"/>
-      <c r="AL301" s="1"/>
-      <c r="AM301" s="1"/>
-      <c r="AN301" s="1"/>
-      <c r="AO301" s="1"/>
-      <c r="AP301" s="1"/>
-      <c r="AQ301" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ1" xr:uid="{8FDDF349-4C79-B042-B548-5CB6940588C3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AQ301">
+  <autoFilter ref="A1:AJ1" xr:uid="{8FDDF349-4C79-B042-B548-5CB6940588C3}">
+    <sortState ref="A2:AJ301">
       <sortCondition ref="B1:B301"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AQ301">
+  <sortState ref="A2:AJ301">
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="1"/>
